--- a/output_circle.xlsx
+++ b/output_circle.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andrew/Desktop/Labs/Comp-Robotics-lab-3-Kalman-Filter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D2A00BD5-E090-BE46-BC22-40DC6FF8BD83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A91D23-1885-0842-A3A1-1FB730E9788A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26820" yWindow="-6920" windowWidth="31000" windowHeight="21400"/>
+    <workbookView xWindow="26820" yWindow="-6920" windowWidth="31000" windowHeight="21400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output_square" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,9 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="output_big_circle1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Andrew/Desktop/Labs/Comp-Robotics-lab-3-Kalman-Filter/output_big_circle.txt" tab="0" comma="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="output_big_circle1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/Andrew/Desktop/Labs/Comp-Robotics-lab-3-Kalman-Filter/output_big_circle.txt" tab="0" comma="1">
       <textFields count="13">
         <textField/>
         <textField/>
@@ -54,8 +54,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="output_circle1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Andrew/Desktop/Labs/Comp-Robotics-lab-3-Kalman-Filter/output_circle.txt" tab="0" comma="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="output_circle1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/Andrew/Desktop/Labs/Comp-Robotics-lab-3-Kalman-Filter/output_circle.txt" tab="0" comma="1">
       <textFields count="13">
         <textField/>
         <textField/>
@@ -73,8 +73,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="output_straight_line1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Andrew/Desktop/Labs/Comp-Robotics-lab-3-Kalman-Filter/output_straight_line.txt" tab="0" comma="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="output_straight_line1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/Andrew/Desktop/Labs/Comp-Robotics-lab-3-Kalman-Filter/output_straight_line.txt" tab="0" comma="1">
       <textFields count="13">
         <textField/>
         <textField/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -3201,6 +3201,3422 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Circle DIstance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Measurements</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_square!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> (d_front</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output_square!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output_square!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>257.37200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>337.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>293.40699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>241.34700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>252.54599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>285.755</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>332.28100000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>269.74400000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256.29199999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>265.79599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>328.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>275.21699999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>244.376</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240.62799999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>281.66800000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>327.99099999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>280.94200000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>230.02799999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>255.71</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>311.22899999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>297.94200000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>272.31599999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>261.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>295.79199999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>307.44400000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>254.465</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>242.88900000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>252.86</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>343.33800000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>297.54399999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>246.59700000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>248.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>297.73500000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>303.10300000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>259.733</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>230.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>272.65600000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>327.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>300.16300000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>255.30600000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>239.05699999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>279.35700000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>337.20400000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>251.10499999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>263.12099999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>259.53500000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>332.78800000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>285.81</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>282.56900000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>255.268</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>302.46800000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>313.40499999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>261.30700000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>260.04899999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>264.37299999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>329.54599999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>283.28300000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>253.47200000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>261.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>290.90199999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>313.495</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>278.94499999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>260.483</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>278.39499999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>313.83100000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>282.08199999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>265.31</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>253.80500000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>284.67</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>329.048</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>268.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>254.40600000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>274.69099999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>301.97300000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>295.78300000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>256.28100000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>250.82599999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>277.51499999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>338.541</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>290.68299999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>254.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>285.04300000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>332.45800000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>302.90600000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>268.79399999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>232.48099999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>302.78500000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>303.91800000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>257.28199999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>247.054</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>262.90100000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>297.79399999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>295.93799999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>255.523</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>241.60900000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>284.55200000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>338.709</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>267.38099999999997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>231.33500000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>282.45600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B316-5547-8977-9F44E73EBD2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_square!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> d_right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output_square!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output_square!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>247.77500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>334.70100000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>284.97500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>247.803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>276.78699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>271.01600000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>327.72500000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256.73399999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>254.04300000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250.90700000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>319.58100000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>291.35899999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>251.02199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>267.27300000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>295.40699999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>345.93599999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>266.49200000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>248.61099999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>268.04000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>315.72199999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>304.46499999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>258.19200000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255.37299999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>298.70999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>330.02800000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>264.86599999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>251.31700000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>265.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>298.33600000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>294.995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>253.69399999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>248.37799999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>301.95699999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>333.93400000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>265.98099999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>238.78</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>272.20499999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>316.435</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>294.71300000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>251.76</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>253.827</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>299.197</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>321.57</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>260.68400000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>249.06899999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>259.74400000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>317.935</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>291.73399999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>248.125</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>273.16699999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>292.03800000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>348.923</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>267.20299999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>266.54399999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>280.80799999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>343.58499999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>279.387</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>239.917</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>246.82900000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>286.733</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>316.80500000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>248.33099999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>238.22900000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>261.37599999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>323.69600000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>283.91399999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>272.036</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>237.89</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>277.71699999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>310.86099999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>258.56700000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>248.035</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>271.40199999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>326.76499999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>299.02600000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>232.46299999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>248.05600000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>289.197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>317.81900000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>269.10899999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>270.16300000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>261.392</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>350.59199999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>291.85500000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>250.53200000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>251.18899999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>303.24099999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>341.839</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>282.10500000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>243.59800000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>261.68400000000003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>328.70699999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>284.01900000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>247.15299999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>257.351</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>265.70100000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>333.72500000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>286.16000000000003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>240.58099999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>255.398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B316-5547-8977-9F44E73EBD2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2074872127"/>
+        <c:axId val="2074873759"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2074872127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2074873759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2074873759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2074872127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_square!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> theta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output_square!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output_square!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.806</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7120000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1110000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.157</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.367</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9509999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.39700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.57099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.657</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.704</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.099</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.903</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.879</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.972</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.7080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.7549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.57</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4379999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.8040000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.9329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.6360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.0919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.32200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.8320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.7440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.7410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.84</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.141</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.4859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.36</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.9480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.46100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.8129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.2360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.5339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.706</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.8290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.109</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.3159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.7279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.9849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.0620000000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.4859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.976</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.147</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.6960000000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.9019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.2839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.258</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.0519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.53</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.8849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.6210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.0010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.9770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.85699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.1020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.452</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.448</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.542</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.768</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.4590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.9590000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA6E-6744-BAA6-D9802C2A5A61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2046161535"/>
+        <c:axId val="2046238655"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2046161535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046238655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2046238655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046161535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_square!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> omega)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output_square!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output_square!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3.5089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.468</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.323</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.411</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.319</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.629</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.823</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.544</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.512</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.403</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.516</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.605</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.6539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.5430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.6139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.5550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.5179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.4740000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.6059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.6030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.4510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.4129999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.569</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.6080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.6070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.411</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.492</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.4470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.4079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.3650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.617</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.5979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.581</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.351</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.7629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.3940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.569</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.5430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.4449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.4849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.5569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.4689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.6269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.359</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.3919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.5009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.3610000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.3759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.468</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.46</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.6720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.3740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.5089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.5329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.6480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.3860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.2879999999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.4430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.5579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.423</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.593</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.347</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.597</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.51</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.4369999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.6339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.3359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.6179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.6469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.4689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.484</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.4809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.3769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.282</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CCB-7541-9282-848AD75B4F5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2079844191"/>
+        <c:axId val="2073707887"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2079844191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2073707887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2073707887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2079844191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3242,6 +6658,126 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4313,6 +7849,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4387,19 +9471,127 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A7B6A4A-F21F-E84F-B972-501B0DE612A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6CC054-DCA1-404E-BEE5-E4043130D23B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B47912-FE6A-9642-B54B-613CC41DE301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_circle_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="output_straight_line_1" connectionId="3" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_big_circle_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="output_circle_1" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_straight_line_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="output_big_circle_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4698,11 +9890,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4732,7 +9924,7 @@
     <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4785,7 +9977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4829,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <f>(L2-I2)/I2</f>
+        <f t="shared" ref="P2:P33" si="0">(L2-I2)/I2</f>
         <v>0</v>
       </c>
       <c r="Q2">
@@ -4837,15 +10029,23 @@
         <v>1.7194485713478074E-2</v>
       </c>
       <c r="S2">
-        <f>ABS(J2-PI())</f>
+        <f t="shared" ref="S2:S33" si="1">ABS(J2-PI())</f>
         <v>2.791592653589793</v>
       </c>
       <c r="T2">
-        <f>ABS(M2-PI())</f>
+        <f t="shared" ref="T2:T33" si="2">ABS(M2-PI())</f>
         <v>2.8395926535897931</v>
       </c>
+      <c r="W2">
+        <f>COS(D2)</f>
+        <v>0.98162455357131351</v>
+      </c>
+      <c r="X2">
+        <f>SIN(D2)</f>
+        <v>0.19082252441973235</v>
+      </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4889,27 +10089,35 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <f>(K3-H3)/H3</f>
+        <f t="shared" ref="O3:O34" si="3">(K3-H3)/H3</f>
         <v>-8.7464022386956417E-3</v>
       </c>
       <c r="P3">
-        <f>(L3-I3)/I3</f>
+        <f t="shared" si="0"/>
         <v>-2.206764212041227E-3</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q66" si="0">(T3-S3)/S3</f>
+        <f t="shared" ref="Q3:Q66" si="4">(T3-S3)/S3</f>
         <v>-4.1091511289898025E-3</v>
       </c>
       <c r="S3">
-        <f>ABS(J3-PI())</f>
+        <f t="shared" si="1"/>
         <v>2.4335926535897929</v>
       </c>
       <c r="T3">
-        <f>ABS(M3-PI())</f>
+        <f t="shared" si="2"/>
         <v>2.4235926535897931</v>
       </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W66" si="5">COS(D3)</f>
+        <v>0.60582015664346278</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X66" si="6">SIN(D3)</f>
+        <v>0.79560162003636603</v>
+      </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4953,27 +10161,35 @@
         <v>2</v>
       </c>
       <c r="O4">
-        <f>(K4-H4)/H4</f>
+        <f t="shared" si="3"/>
         <v>-8.1497674344387632E-3</v>
       </c>
       <c r="P4">
-        <f>(L4-I4)/I4</f>
+        <f t="shared" si="0"/>
         <v>-4.2869756645212108E-3</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-3.3515391275406362E-3</v>
       </c>
       <c r="S4">
-        <f>ABS(J4-PI())</f>
+        <f t="shared" si="1"/>
         <v>2.0885926535897932</v>
       </c>
       <c r="T4">
-        <f>ABS(M4-PI())</f>
+        <f t="shared" si="2"/>
         <v>2.0815926535897931</v>
       </c>
+      <c r="W4">
+        <f t="shared" si="5"/>
+        <v>0.19356671782160043</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="6"/>
+        <v>0.98108711425223238</v>
+      </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5017,27 +10233,35 @@
         <v>3</v>
       </c>
       <c r="O5">
-        <f>(K5-H5)/H5</f>
+        <f t="shared" si="3"/>
         <v>6.9316966494804011E-3</v>
       </c>
       <c r="P5">
-        <f>(L5-I5)/I5</f>
+        <f t="shared" si="0"/>
         <v>1.2589554148276087E-2</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-7.4816154253084981E-3</v>
       </c>
       <c r="S5">
-        <f>ABS(J5-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.7375926535897932</v>
       </c>
       <c r="T5">
-        <f>ABS(M5-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.7245926535897931</v>
       </c>
+      <c r="W5">
+        <f t="shared" si="5"/>
+        <v>0.18669442174195539</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="6"/>
+        <v>0.98241803367529701</v>
+      </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5081,27 +10305,35 @@
         <v>4</v>
       </c>
       <c r="O6">
-        <f>(K6-H6)/H6</f>
+        <f t="shared" si="3"/>
         <v>-1.3031369450894923E-2</v>
       </c>
       <c r="P6">
-        <f>(L6-I6)/I6</f>
+        <f t="shared" si="0"/>
         <v>1.7095928932063546E-3</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.0251807303691527E-2</v>
       </c>
       <c r="S6">
-        <f>ABS(J6-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.3825926535897932</v>
       </c>
       <c r="T6">
-        <f>ABS(M6-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.3545926535897932</v>
       </c>
+      <c r="W6">
+        <f t="shared" si="5"/>
+        <v>-0.53051133762294478</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>0.84767784013356984</v>
+      </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5145,27 +10377,35 @@
         <v>5</v>
       </c>
       <c r="O7">
-        <f>(K7-H7)/H7</f>
+        <f t="shared" si="3"/>
         <v>-6.7040176219894322E-4</v>
       </c>
       <c r="P7">
-        <f>(L7-I7)/I7</f>
+        <f t="shared" si="0"/>
         <v>-2.6546058409313094E-3</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.2799769400502138E-2</v>
       </c>
       <c r="S7">
-        <f>ABS(J7-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.0365926535897931</v>
       </c>
       <c r="T7">
-        <f>ABS(M7-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.0705926535897929</v>
       </c>
+      <c r="W7">
+        <f t="shared" si="5"/>
+        <v>-0.2330410557944691</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>0.97246689728452929</v>
+      </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5209,27 +10449,35 @@
         <v>6</v>
       </c>
       <c r="O8">
-        <f>(K8-H8)/H8</f>
+        <f t="shared" si="3"/>
         <v>-1.4393767219689957E-3</v>
       </c>
       <c r="P8">
-        <f>(L8-I8)/I8</f>
+        <f t="shared" si="0"/>
         <v>4.8009657896210473E-3</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2737183091666812E-2</v>
       </c>
       <c r="S8">
-        <f>ABS(J8-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.70659265358979306</v>
       </c>
       <c r="T8">
-        <f>ABS(M8-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.71559265358979296</v>
       </c>
+      <c r="W8">
+        <f t="shared" si="5"/>
+        <v>-0.46195982306112621</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="6"/>
+        <v>0.88690085233769678</v>
+      </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5273,27 +10521,35 @@
         <v>7</v>
       </c>
       <c r="O9">
-        <f>(K9-H9)/H9</f>
+        <f t="shared" si="3"/>
         <v>-9.5850473261601863E-5</v>
       </c>
       <c r="P9">
-        <f>(L9-I9)/I9</f>
+        <f t="shared" si="0"/>
         <v>1.276989832781799E-2</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1.6825921509033372E-2</v>
       </c>
       <c r="S9">
-        <f>ABS(J9-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.35659265358979297</v>
       </c>
       <c r="T9">
-        <f>ABS(M9-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.35059265358979319</v>
       </c>
+      <c r="W9">
+        <f t="shared" si="5"/>
+        <v>-0.98038174613889884</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="6"/>
+        <v>-0.19710817293466984</v>
+      </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5337,27 +10593,35 @@
         <v>8</v>
       </c>
       <c r="O10">
-        <f>(K10-H10)/H10</f>
+        <f t="shared" si="3"/>
         <v>1.0153963912963734E-2</v>
       </c>
       <c r="P10">
-        <f>(L10-I10)/I10</f>
+        <f t="shared" si="0"/>
         <v>2.1730099383249096E-3</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-0.2177390435504061</v>
       </c>
       <c r="S10">
-        <f>ABS(J10-PI())</f>
+        <f t="shared" si="1"/>
         <v>4.5926535897931053E-3</v>
       </c>
       <c r="T10">
-        <f>ABS(M10-PI())</f>
+        <f t="shared" si="2"/>
         <v>3.5926535897932155E-3</v>
       </c>
+      <c r="W10">
+        <f t="shared" si="5"/>
+        <v>-0.90913548508223729</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="6"/>
+        <v>0.41650050391840487</v>
+      </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5401,27 +10665,35 @@
         <v>9</v>
       </c>
       <c r="O11">
-        <f>(K11-H11)/H11</f>
+        <f t="shared" si="3"/>
         <v>4.9442478334083811E-3</v>
       </c>
       <c r="P11">
-        <f>(L11-I11)/I11</f>
+        <f t="shared" si="0"/>
         <v>1.1983606426408673E-2</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-6.7566109376159103E-2</v>
       </c>
       <c r="S11">
-        <f>ABS(J11-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.34040734641020709</v>
       </c>
       <c r="T11">
-        <f>ABS(M11-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.31740734641020696</v>
       </c>
+      <c r="W11">
+        <f t="shared" si="5"/>
+        <v>-0.99953208126904458</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="6"/>
+        <v>3.0587881815712824E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5465,27 +10737,35 @@
         <v>10</v>
       </c>
       <c r="O12">
-        <f>(K12-H12)/H12</f>
+        <f t="shared" si="3"/>
         <v>1.250557928967674E-2</v>
       </c>
       <c r="P12">
-        <f>(L12-I12)/I12</f>
+        <f t="shared" si="0"/>
         <v>1.0413794481408199E-2</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1.8775075203055738E-2</v>
       </c>
       <c r="S12">
-        <f>ABS(J12-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.69240734641020696</v>
       </c>
       <c r="T12">
-        <f>ABS(M12-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.67940734641020706</v>
       </c>
+      <c r="W12">
+        <f t="shared" si="5"/>
+        <v>-0.94127572079875099</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="6"/>
+        <v>-0.33763888614137993</v>
+      </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5529,27 +10809,35 @@
         <v>11</v>
       </c>
       <c r="O13">
-        <f>(K13-H13)/H13</f>
+        <f t="shared" si="3"/>
         <v>1.109455075836671E-2</v>
       </c>
       <c r="P13">
-        <f>(L13-I13)/I13</f>
+        <f t="shared" si="0"/>
         <v>-3.3606259315647415E-3</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.8008300405193007E-2</v>
       </c>
       <c r="S13">
-        <f>ABS(J13-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.0354073464102065</v>
       </c>
       <c r="T13">
-        <f>ABS(M13-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.0644073464102073</v>
       </c>
+      <c r="W13">
+        <f t="shared" si="5"/>
+        <v>-0.52727385493039636</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="6"/>
+        <v>-0.84969540536997101</v>
+      </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5593,27 +10881,35 @@
         <v>12</v>
       </c>
       <c r="O14">
-        <f>(K14-H14)/H14</f>
+        <f t="shared" si="3"/>
         <v>-9.1995587397797102E-4</v>
       </c>
       <c r="P14">
-        <f>(L14-I14)/I14</f>
+        <f t="shared" si="0"/>
         <v>-1.8161570117631025E-2</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.5879806077978047E-2</v>
       </c>
       <c r="S14">
-        <f>ABS(J14-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.385407346410207</v>
       </c>
       <c r="T14">
-        <f>ABS(M14-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.4074073464102073</v>
       </c>
+      <c r="W14">
+        <f t="shared" si="5"/>
+        <v>-0.33856271154458828</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="6"/>
+        <v>-0.94094382954115596</v>
+      </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5657,27 +10953,35 @@
         <v>13</v>
       </c>
       <c r="O15">
-        <f>(K15-H15)/H15</f>
+        <f t="shared" si="3"/>
         <v>6.6262613391100227E-3</v>
       </c>
       <c r="P15">
-        <f>(L15-I15)/I15</f>
+        <f t="shared" si="0"/>
         <v>-3.1127442179639066E-2</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.5456961920108021E-2</v>
       </c>
       <c r="S15">
-        <f>ABS(J15-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.728407346410207</v>
       </c>
       <c r="T15">
-        <f>ABS(M15-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.7724073464102066</v>
       </c>
+      <c r="W15">
+        <f t="shared" si="5"/>
+        <v>0.23635322817115695</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="6"/>
+        <v>-0.97166720204660251</v>
+      </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5721,27 +11025,35 @@
         <v>14</v>
       </c>
       <c r="O16">
-        <f>(K16-H16)/H16</f>
+        <f t="shared" si="3"/>
         <v>5.5146546472412432E-3</v>
       </c>
       <c r="P16">
-        <f>(L16-I16)/I16</f>
+        <f t="shared" si="0"/>
         <v>-3.5728259220517838E-2</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.1190447084513026E-2</v>
       </c>
       <c r="S16">
-        <f>ABS(J16-PI())</f>
+        <f t="shared" si="1"/>
         <v>2.0764073464102069</v>
       </c>
       <c r="T16">
-        <f>ABS(M16-PI())</f>
+        <f t="shared" si="2"/>
         <v>2.1204073464102065</v>
       </c>
+      <c r="W16">
+        <f t="shared" si="5"/>
+        <v>0.37705173919609986</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="6"/>
+        <v>-0.92619219710014633</v>
+      </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5785,27 +11097,35 @@
         <v>15</v>
       </c>
       <c r="O17">
-        <f>(K17-H17)/H17</f>
+        <f t="shared" si="3"/>
         <v>2.2758198123642376E-3</v>
       </c>
       <c r="P17">
-        <f>(L17-I17)/I17</f>
+        <f t="shared" si="0"/>
         <v>6.6404672714116143E-3</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.0623596968567756E-3</v>
       </c>
       <c r="S17">
-        <f>ABS(J17-PI())</f>
+        <f t="shared" si="1"/>
         <v>2.4244073464102067</v>
       </c>
       <c r="T17">
-        <f>ABS(M17-PI())</f>
+        <f t="shared" si="2"/>
         <v>2.4194073464102068</v>
       </c>
+      <c r="W17">
+        <f t="shared" si="5"/>
+        <v>0.80018944107280565</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="6"/>
+        <v>-0.5997473287940438</v>
+      </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:24">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5849,27 +11169,35 @@
         <v>16</v>
       </c>
       <c r="O18">
-        <f>(K18-H18)/H18</f>
+        <f t="shared" si="3"/>
         <v>-7.6848609434571197E-3</v>
       </c>
       <c r="P18">
-        <f>(L18-I18)/I18</f>
+        <f t="shared" si="0"/>
         <v>3.0469177412076865E-3</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-9.010933463807231E-3</v>
       </c>
       <c r="S18">
-        <f>ABS(J18-PI())</f>
+        <f t="shared" si="1"/>
         <v>2.7744073464102073</v>
       </c>
       <c r="T18">
-        <f>ABS(M18-PI())</f>
+        <f t="shared" si="2"/>
         <v>2.7494073464102069</v>
       </c>
+      <c r="W18">
+        <f t="shared" si="5"/>
+        <v>0.99782279049921174</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="6"/>
+        <v>6.5952094435022493E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:24">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5913,11 +11241,11 @@
         <v>17</v>
       </c>
       <c r="O19">
-        <f>(K19-H19)/H19</f>
+        <f t="shared" si="3"/>
         <v>2.2837213191118175E-2</v>
       </c>
       <c r="P19">
-        <f>(L19-I19)/I19</f>
+        <f t="shared" si="0"/>
         <v>-1.0824542553234014E-2</v>
       </c>
       <c r="Q19">
@@ -5925,15 +11253,23 @@
         <v>-1.120212447337043E-2</v>
       </c>
       <c r="S19">
-        <f>ABS(J19-PI())</f>
+        <f t="shared" si="1"/>
         <v>3.1244073464102069</v>
       </c>
       <c r="T19">
-        <f>ABS(M19-PI())</f>
+        <f t="shared" si="2"/>
         <v>3.0894073464102068</v>
       </c>
+      <c r="W19">
+        <f t="shared" si="5"/>
+        <v>0.92222510250606482</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="6"/>
+        <v>0.38665341109018836</v>
+      </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:24">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5977,27 +11313,35 @@
         <v>18</v>
       </c>
       <c r="O20">
-        <f>(K20-H20)/H20</f>
+        <f t="shared" si="3"/>
         <v>2.2748569491795812E-2</v>
       </c>
       <c r="P20">
-        <f>(L20-I20)/I20</f>
+        <f t="shared" si="0"/>
         <v>-4.5733594820321303E-3</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6.0593258177548256E-3</v>
       </c>
       <c r="S20">
-        <f>ABS(J20-PI())</f>
+        <f t="shared" si="1"/>
         <v>2.8055926535897933</v>
       </c>
       <c r="T20">
-        <f>ABS(M20-PI())</f>
+        <f t="shared" si="2"/>
         <v>2.8225926535897932</v>
       </c>
+      <c r="W20">
+        <f t="shared" si="5"/>
+        <v>0.84136092225302095</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="6"/>
+        <v>0.5404736797528128</v>
+      </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:24">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6041,27 +11385,35 @@
         <v>19</v>
       </c>
       <c r="O21">
-        <f>(K21-H21)/H21</f>
+        <f t="shared" si="3"/>
         <v>2.1684254251775295E-2</v>
       </c>
       <c r="P21">
-        <f>(L21-I21)/I21</f>
+        <f t="shared" si="0"/>
         <v>-5.0476186669970672E-3</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6.9145248502952249E-3</v>
       </c>
       <c r="S21">
-        <f>ABS(J21-PI())</f>
+        <f t="shared" si="1"/>
         <v>2.4585926535897933</v>
       </c>
       <c r="T21">
-        <f>ABS(M21-PI())</f>
+        <f t="shared" si="2"/>
         <v>2.4755926535897932</v>
       </c>
+      <c r="W21">
+        <f t="shared" si="5"/>
+        <v>0.98507278549555521</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="6"/>
+        <v>0.17213833761259542</v>
+      </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:24">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6105,27 +11457,35 @@
         <v>20</v>
       </c>
       <c r="O22">
-        <f>(K22-H22)/H22</f>
+        <f t="shared" si="3"/>
         <v>5.3058016747177094E-4</v>
       </c>
       <c r="P22">
-        <f>(L22-I22)/I22</f>
+        <f t="shared" si="0"/>
         <v>-6.2604057285905847E-3</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.8208169453424987E-2</v>
       </c>
       <c r="S22">
-        <f>ABS(J22-PI())</f>
+        <f t="shared" si="1"/>
         <v>2.0915926535897933</v>
       </c>
       <c r="T22">
-        <f>ABS(M22-PI())</f>
+        <f t="shared" si="2"/>
         <v>2.150592653589793</v>
       </c>
+      <c r="W22">
+        <f t="shared" si="5"/>
+        <v>6.1757003146086745E-2</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="6"/>
+        <v>0.99809121455026051</v>
+      </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:24">
       <c r="A23">
         <v>21</v>
       </c>
@@ -6169,27 +11529,35 @@
         <v>21</v>
       </c>
       <c r="O23">
-        <f>(K23-H23)/H23</f>
+        <f t="shared" si="3"/>
         <v>-7.5429701990849156E-3</v>
       </c>
       <c r="P23">
-        <f>(L23-I23)/I23</f>
+        <f t="shared" si="0"/>
         <v>-2.4302326045562844E-2</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.1275008392494488E-2</v>
       </c>
       <c r="S23">
-        <f>ABS(J23-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.7585926535897931</v>
       </c>
       <c r="T23">
-        <f>ABS(M23-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.813592653589793</v>
       </c>
+      <c r="W23">
+        <f t="shared" si="5"/>
+        <v>-8.6096948564739845E-2</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="6"/>
+        <v>0.99628676366186886</v>
+      </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:24">
       <c r="A24">
         <v>22</v>
       </c>
@@ -6233,27 +11601,35 @@
         <v>22</v>
       </c>
       <c r="O24">
-        <f>(K24-H24)/H24</f>
+        <f t="shared" si="3"/>
         <v>-1.1720869370950708E-2</v>
       </c>
       <c r="P24">
-        <f>(L24-I24)/I24</f>
+        <f t="shared" si="0"/>
         <v>-3.1337881886744211E-2</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4.1381495437671598E-2</v>
       </c>
       <c r="S24">
-        <f>ABS(J24-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.4015926535897931</v>
       </c>
       <c r="T24">
-        <f>ABS(M24-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.4595926535897932</v>
       </c>
+      <c r="W24">
+        <f t="shared" si="5"/>
+        <v>-0.13281011220500497</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="6"/>
+        <v>0.99114150054172079</v>
+      </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:24">
       <c r="A25">
         <v>23</v>
       </c>
@@ -6297,27 +11673,35 @@
         <v>23</v>
       </c>
       <c r="O25">
-        <f>(K25-H25)/H25</f>
+        <f t="shared" si="3"/>
         <v>-2.1110295408480813E-2</v>
       </c>
       <c r="P25">
-        <f>(L25-I25)/I25</f>
+        <f t="shared" si="0"/>
         <v>-3.6786867706998495E-2</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.2018152167698594E-2</v>
       </c>
       <c r="S25">
-        <f>ABS(J25-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.0445926535897931</v>
       </c>
       <c r="T25">
-        <f>ABS(M25-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.0675926535897933</v>
       </c>
+      <c r="W25">
+        <f t="shared" si="5"/>
+        <v>0.45448710183906249</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="6"/>
+        <v>0.89075331841196626</v>
+      </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:24">
       <c r="A26">
         <v>24</v>
       </c>
@@ -6361,27 +11745,35 @@
         <v>24</v>
       </c>
       <c r="O26">
-        <f>(K26-H26)/H26</f>
+        <f t="shared" si="3"/>
         <v>-2.7889208782269578E-2</v>
       </c>
       <c r="P26">
-        <f>(L26-I26)/I26</f>
+        <f t="shared" si="0"/>
         <v>-3.2718888484853284E-2</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.5914469303659076E-2</v>
       </c>
       <c r="S26">
-        <f>ABS(J26-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.69459265358979305</v>
       </c>
       <c r="T26">
-        <f>ABS(M26-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.67659265358979326</v>
       </c>
+      <c r="W26">
+        <f t="shared" si="5"/>
+        <v>-0.97167154275214473</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="6"/>
+        <v>0.23633538246666932</v>
+      </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:24">
       <c r="A27">
         <v>25</v>
       </c>
@@ -6425,27 +11817,35 @@
         <v>25</v>
       </c>
       <c r="O27">
-        <f>(K27-H27)/H27</f>
+        <f t="shared" si="3"/>
         <v>-3.3797962228622982E-2</v>
       </c>
       <c r="P27">
-        <f>(L27-I27)/I27</f>
+        <f t="shared" si="0"/>
         <v>-2.2077444816374199E-2</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-6.1118885344595572E-2</v>
       </c>
       <c r="S27">
-        <f>ABS(J27-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.34359265358979307</v>
       </c>
       <c r="T27">
-        <f>ABS(M27-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.32259265358979317</v>
       </c>
+      <c r="W27">
+        <f t="shared" si="5"/>
+        <v>-0.75601517394708639</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="6"/>
+        <v>0.65455409001988274</v>
+      </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:24">
       <c r="A28">
         <v>26</v>
       </c>
@@ -6489,27 +11889,35 @@
         <v>26</v>
       </c>
       <c r="O28">
-        <f>(K28-H28)/H28</f>
+        <f t="shared" si="3"/>
         <v>-3.7994211011800678E-2</v>
       </c>
       <c r="P28">
-        <f>(L28-I28)/I28</f>
+        <f t="shared" si="0"/>
         <v>-1.6925021196269454E-2</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.7000222336626711</v>
       </c>
       <c r="S28">
-        <f>ABS(J28-PI())</f>
+        <f t="shared" si="1"/>
         <v>7.4073464102069053E-3</v>
       </c>
       <c r="T28">
-        <f>ABS(M28-PI())</f>
+        <f t="shared" si="2"/>
         <v>2.7407346410206923E-2</v>
       </c>
+      <c r="W28">
+        <f t="shared" si="5"/>
+        <v>-0.74021426980868332</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="6"/>
+        <v>-0.67237105438262124</v>
+      </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:24">
       <c r="A29">
         <v>27</v>
       </c>
@@ -6553,27 +11961,35 @@
         <v>27</v>
       </c>
       <c r="O29">
-        <f>(K29-H29)/H29</f>
+        <f t="shared" si="3"/>
         <v>-4.6723508498437094E-2</v>
       </c>
       <c r="P29">
-        <f>(L29-I29)/I29</f>
+        <f t="shared" si="0"/>
         <v>-1.1506020964394162E-2</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.4392326620797787E-2</v>
       </c>
       <c r="S29">
-        <f>ABS(J29-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.34740734641020676</v>
       </c>
       <c r="T29">
-        <f>ABS(M29-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.3524073464102071</v>
       </c>
+      <c r="W29">
+        <f t="shared" si="5"/>
+        <v>-0.98565360096063748</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="6"/>
+        <v>0.16878086062503753</v>
+      </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:24">
       <c r="A30">
         <v>28</v>
       </c>
@@ -6617,27 +12033,35 @@
         <v>28</v>
       </c>
       <c r="O30">
-        <f>(K30-H30)/H30</f>
+        <f t="shared" si="3"/>
         <v>1.6337631103218186E-2</v>
       </c>
       <c r="P30">
-        <f>(L30-I30)/I30</f>
+        <f t="shared" si="0"/>
         <v>1.4988376605968981E-2</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.448130782008966E-2</v>
       </c>
       <c r="S30">
-        <f>ABS(J30-PI())</f>
+        <f t="shared" si="1"/>
         <v>0.69440734641020674</v>
       </c>
       <c r="T30">
-        <f>ABS(M30-PI())</f>
+        <f t="shared" si="2"/>
         <v>0.67740734641020683</v>
       </c>
+      <c r="W30">
+        <f t="shared" si="5"/>
+        <v>-0.84383424873940682</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="6"/>
+        <v>-0.53660391412512165</v>
+      </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:24">
       <c r="A31">
         <v>29</v>
       </c>
@@ -6681,27 +12105,35 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <f>(K31-H31)/H31</f>
+        <f t="shared" si="3"/>
         <v>1.1548512516532024E-2</v>
       </c>
       <c r="P31">
-        <f>(L31-I31)/I31</f>
+        <f t="shared" si="0"/>
         <v>1.555826845718174E-2</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.006866644432713E-2</v>
       </c>
       <c r="S31">
-        <f>ABS(J31-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.0464073464102066</v>
       </c>
       <c r="T31">
-        <f>ABS(M31-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.0254073464102067</v>
       </c>
+      <c r="W31">
+        <f t="shared" si="5"/>
+        <v>-0.8176913056827636</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="6"/>
+        <v>-0.5756569539324764</v>
+      </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:24">
       <c r="A32">
         <v>30</v>
       </c>
@@ -6745,27 +12177,35 @@
         <v>30</v>
       </c>
       <c r="O32">
-        <f>(K32-H32)/H32</f>
+        <f t="shared" si="3"/>
         <v>8.2836183482145774E-4</v>
       </c>
       <c r="P32">
-        <f>(L32-I32)/I32</f>
+        <f t="shared" si="0"/>
         <v>-1.4482490988449804E-3</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7.2024971820049285E-4</v>
       </c>
       <c r="S32">
-        <f>ABS(J32-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.3884073464102071</v>
       </c>
       <c r="T32">
-        <f>ABS(M32-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.3894073464102066</v>
       </c>
+      <c r="W32">
+        <f t="shared" si="5"/>
+        <v>-0.14190832078367338</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="6"/>
+        <v>-0.98987980507350393</v>
+      </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:24">
       <c r="A33">
         <v>31</v>
       </c>
@@ -6809,27 +12249,35 @@
         <v>31</v>
       </c>
       <c r="O33">
-        <f>(K33-H33)/H33</f>
+        <f t="shared" si="3"/>
         <v>-7.0853346715415537E-3</v>
       </c>
       <c r="P33">
-        <f>(L33-I33)/I33</f>
+        <f t="shared" si="0"/>
         <v>-1.0417333674841553E-2</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.722744541180678E-3</v>
       </c>
       <c r="S33">
-        <f>ABS(J33-PI())</f>
+        <f t="shared" si="1"/>
         <v>1.7414073464102069</v>
       </c>
       <c r="T33">
-        <f>ABS(M33-PI())</f>
+        <f t="shared" si="2"/>
         <v>1.744407346410207</v>
       </c>
+      <c r="W33">
+        <f t="shared" si="5"/>
+        <v>0.6635926666746238</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="6"/>
+        <v>-0.74809409350406031</v>
+      </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:24">
       <c r="A34">
         <v>32</v>
       </c>
@@ -6873,27 +12321,35 @@
         <v>32</v>
       </c>
       <c r="O34">
-        <f>(K34-H34)/H34</f>
+        <f t="shared" si="3"/>
         <v>-1.1790949649457946E-3</v>
       </c>
       <c r="P34">
-        <f>(L34-I34)/I34</f>
+        <f t="shared" ref="P34:P65" si="7">(L34-I34)/I34</f>
         <v>-3.2144442090028505E-3</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.2951052592594924E-2</v>
       </c>
       <c r="S34">
-        <f>ABS(J34-PI())</f>
+        <f t="shared" ref="S34:S65" si="8">ABS(J34-PI())</f>
         <v>2.0914073464102065</v>
       </c>
       <c r="T34">
-        <f>ABS(M34-PI())</f>
+        <f t="shared" ref="T34:T65" si="9">ABS(M34-PI())</f>
         <v>2.1394073464102066</v>
       </c>
+      <c r="W34">
+        <f t="shared" si="5"/>
+        <v>9.1482931258108677E-2</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="6"/>
+        <v>-0.99580664452915968</v>
+      </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:24">
       <c r="A35">
         <v>33</v>
       </c>
@@ -6937,27 +12393,35 @@
         <v>33</v>
       </c>
       <c r="O35">
-        <f>(K35-H35)/H35</f>
+        <f t="shared" ref="O35:O66" si="10">(K35-H35)/H35</f>
         <v>6.8309547802742881E-3</v>
       </c>
       <c r="P35">
-        <f>(L35-I35)/I35</f>
+        <f t="shared" si="7"/>
         <v>2.7275162847237487E-2</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.7591176062839092E-2</v>
       </c>
       <c r="S35">
-        <f>ABS(J35-PI())</f>
+        <f t="shared" si="8"/>
         <v>2.4444073464102072</v>
       </c>
       <c r="T35">
-        <f>ABS(M35-PI())</f>
+        <f t="shared" si="9"/>
         <v>2.4874073464102064</v>
       </c>
+      <c r="W35">
+        <f t="shared" si="5"/>
+        <v>0.93930915529371384</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="6"/>
+        <v>-0.34307187407511236</v>
+      </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:24">
       <c r="A36">
         <v>34</v>
       </c>
@@ -7001,27 +12465,35 @@
         <v>34</v>
       </c>
       <c r="O36">
-        <f>(K36-H36)/H36</f>
+        <f t="shared" si="10"/>
         <v>4.6314532975231899E-3</v>
       </c>
       <c r="P36">
-        <f>(L36-I36)/I36</f>
+        <f t="shared" si="7"/>
         <v>2.6302624259088064E-2</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.9675128946995631E-2</v>
       </c>
       <c r="S36">
-        <f>ABS(J36-PI())</f>
+        <f t="shared" si="8"/>
         <v>2.7954073464102072</v>
       </c>
       <c r="T36">
-        <f>ABS(M36-PI())</f>
+        <f t="shared" si="9"/>
         <v>2.8504073464102069</v>
       </c>
+      <c r="W36">
+        <f t="shared" si="5"/>
+        <v>0.79778405664793628</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="6"/>
+        <v>-0.60294328005075437</v>
+      </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:24">
       <c r="A37">
         <v>35</v>
       </c>
@@ -7065,27 +12537,35 @@
         <v>35</v>
       </c>
       <c r="O37">
-        <f>(K37-H37)/H37</f>
+        <f t="shared" si="10"/>
         <v>3.7261078101510373E-2</v>
       </c>
       <c r="P37">
-        <f>(L37-I37)/I37</f>
+        <f t="shared" si="7"/>
         <v>-6.8049267669776547E-5</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1.9423085617383422E-2</v>
       </c>
       <c r="S37">
-        <f>ABS(J37-PI())</f>
+        <f t="shared" si="8"/>
         <v>3.1405926535897932</v>
       </c>
       <c r="T37">
-        <f>ABS(M37-PI())</f>
+        <f t="shared" si="9"/>
         <v>3.0795926535897933</v>
       </c>
+      <c r="W37">
+        <f t="shared" si="5"/>
+        <v>0.96984913978808474</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="6"/>
+        <v>-0.24370606486567378</v>
+      </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:24">
       <c r="A38">
         <v>36</v>
       </c>
@@ -7129,27 +12609,35 @@
         <v>36</v>
       </c>
       <c r="O38">
-        <f>(K38-H38)/H38</f>
+        <f t="shared" si="10"/>
         <v>2.1117967967171948E-2</v>
       </c>
       <c r="P38">
-        <f>(L38-I38)/I38</f>
+        <f t="shared" si="7"/>
         <v>-3.5225503264360944E-4</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.5138326753020215E-2</v>
       </c>
       <c r="S38">
-        <f>ABS(J38-PI())</f>
+        <f t="shared" si="8"/>
         <v>2.7845926535897929</v>
       </c>
       <c r="T38">
-        <f>ABS(M38-PI())</f>
+        <f t="shared" si="9"/>
         <v>2.7145926535897931</v>
       </c>
+      <c r="W38">
+        <f t="shared" si="5"/>
+        <v>0.99539553785701529</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="6"/>
+        <v>9.5852611932817036E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:24">
       <c r="A39">
         <v>37</v>
       </c>
@@ -7193,27 +12681,35 @@
         <v>37</v>
       </c>
       <c r="O39">
-        <f>(K39-H39)/H39</f>
+        <f t="shared" si="10"/>
         <v>6.9663225965927833E-2</v>
       </c>
       <c r="P39">
-        <f>(L39-I39)/I39</f>
+        <f t="shared" si="7"/>
         <v>4.1271151465125926E-3</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-3.5837973010566362E-2</v>
       </c>
       <c r="S39">
-        <f>ABS(J39-PI())</f>
+        <f t="shared" si="8"/>
         <v>2.4275926535897931</v>
       </c>
       <c r="T39">
-        <f>ABS(M39-PI())</f>
+        <f t="shared" si="9"/>
         <v>2.340592653589793</v>
       </c>
+      <c r="W39">
+        <f t="shared" si="5"/>
+        <v>0.98177968953067229</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="6"/>
+        <v>-0.19002273870528394</v>
+      </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:24">
       <c r="A40">
         <v>38</v>
       </c>
@@ -7257,27 +12753,35 @@
         <v>38</v>
       </c>
       <c r="O40">
-        <f>(K40-H40)/H40</f>
+        <f t="shared" si="10"/>
         <v>3.4274700410626108E-2</v>
       </c>
       <c r="P40">
-        <f>(L40-I40)/I40</f>
+        <f t="shared" si="7"/>
         <v>-2.5247421522865521E-2</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4.7994026004891289E-4</v>
       </c>
       <c r="S40">
-        <f>ABS(J40-PI())</f>
+        <f t="shared" si="8"/>
         <v>2.0835926535897933</v>
       </c>
       <c r="T40">
-        <f>ABS(M40-PI())</f>
+        <f t="shared" si="9"/>
         <v>2.0845926535897932</v>
       </c>
+      <c r="W40">
+        <f t="shared" si="5"/>
+        <v>0.94860438691042726</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="6"/>
+        <v>0.31646440105372414</v>
+      </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:24">
       <c r="A41">
         <v>39</v>
       </c>
@@ -7321,27 +12825,35 @@
         <v>39</v>
       </c>
       <c r="O41">
-        <f>(K41-H41)/H41</f>
+        <f t="shared" si="10"/>
         <v>3.050216788968111E-2</v>
       </c>
       <c r="P41">
-        <f>(L41-I41)/I41</f>
+        <f t="shared" si="7"/>
         <v>-2.1203157797568702E-2</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-1.1503557178103006E-3</v>
       </c>
       <c r="S41">
-        <f>ABS(J41-PI())</f>
+        <f t="shared" si="8"/>
         <v>1.7385926535897931</v>
       </c>
       <c r="T41">
-        <f>ABS(M41-PI())</f>
+        <f t="shared" si="9"/>
         <v>1.7365926535897931</v>
       </c>
+      <c r="W41">
+        <f t="shared" si="5"/>
+        <v>0.73100686438300011</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="6"/>
+        <v>0.68237010795090824</v>
+      </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:24">
       <c r="A42">
         <v>40</v>
       </c>
@@ -7385,27 +12897,35 @@
         <v>40</v>
       </c>
       <c r="O42">
-        <f>(K42-H42)/H42</f>
+        <f t="shared" si="10"/>
         <v>3.2235528942115725E-2</v>
       </c>
       <c r="P42">
-        <f>(L42-I42)/I42</f>
+        <f t="shared" si="7"/>
         <v>8.1584847840648501E-3</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.4518079744315647E-2</v>
       </c>
       <c r="S42">
-        <f>ABS(J42-PI())</f>
+        <f t="shared" si="8"/>
         <v>1.3775926535897931</v>
       </c>
       <c r="T42">
-        <f>ABS(M42-PI())</f>
+        <f t="shared" si="9"/>
         <v>1.3975926535897931</v>
       </c>
+      <c r="W42">
+        <f t="shared" si="5"/>
+        <v>-0.29666990523836229</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="6"/>
+        <v>0.95498008739756512</v>
+      </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:24">
       <c r="A43">
         <v>41</v>
       </c>
@@ -7449,27 +12969,35 @@
         <v>41</v>
       </c>
       <c r="O43">
-        <f>(K43-H43)/H43</f>
+        <f t="shared" si="10"/>
         <v>2.2756938650870088E-2</v>
       </c>
       <c r="P43">
-        <f>(L43-I43)/I43</f>
+        <f t="shared" si="7"/>
         <v>3.01058097030346E-2</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.1243874146595312E-2</v>
       </c>
       <c r="S43">
-        <f>ABS(J43-PI())</f>
+        <f t="shared" si="8"/>
         <v>1.0355926535897932</v>
       </c>
       <c r="T43">
-        <f>ABS(M43-PI())</f>
+        <f t="shared" si="9"/>
         <v>1.013592653589793</v>
       </c>
+      <c r="W43">
+        <f t="shared" si="5"/>
+        <v>-0.25824358310075146</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="6"/>
+        <v>0.96607983717045109</v>
+      </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:24">
       <c r="A44">
         <v>42</v>
       </c>
@@ -7513,27 +13041,35 @@
         <v>42</v>
       </c>
       <c r="O44">
-        <f>(K44-H44)/H44</f>
+        <f t="shared" si="10"/>
         <v>2.7288370403197069E-2</v>
       </c>
       <c r="P44">
-        <f>(L44-I44)/I44</f>
+        <f t="shared" si="7"/>
         <v>2.0012435066888646E-2</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.4607226571250602E-2</v>
       </c>
       <c r="S44">
-        <f>ABS(J44-PI())</f>
+        <f t="shared" si="8"/>
         <v>0.68459265358979327</v>
       </c>
       <c r="T44">
-        <f>ABS(M44-PI())</f>
+        <f t="shared" si="9"/>
         <v>0.69459265358979305</v>
       </c>
+      <c r="W44">
+        <f t="shared" si="5"/>
+        <v>-0.42521885209815219</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="6"/>
+        <v>0.90509056332520099</v>
+      </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:24">
       <c r="A45">
         <v>43</v>
       </c>
@@ -7577,27 +13113,35 @@
         <v>43</v>
       </c>
       <c r="O45">
-        <f>(K45-H45)/H45</f>
+        <f t="shared" si="10"/>
         <v>7.9475176000735562E-3</v>
       </c>
       <c r="P45">
-        <f>(L45-I45)/I45</f>
+        <f t="shared" si="7"/>
         <v>2.5231802408981981E-2</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-5.6280845563324695E-2</v>
       </c>
       <c r="S45">
-        <f>ABS(J45-PI())</f>
+        <f t="shared" si="8"/>
         <v>0.33759265358979329</v>
       </c>
       <c r="T45">
-        <f>ABS(M45-PI())</f>
+        <f t="shared" si="9"/>
         <v>0.31859265358979316</v>
       </c>
+      <c r="W45">
+        <f t="shared" si="5"/>
+        <v>-0.92199578902701751</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="6"/>
+        <v>0.38719990317205327</v>
+      </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:24">
       <c r="A46">
         <v>44</v>
       </c>
@@ -7641,27 +13185,35 @@
         <v>44</v>
       </c>
       <c r="O46">
-        <f>(K46-H46)/H46</f>
+        <f t="shared" si="10"/>
         <v>2.3522089859489771E-2</v>
       </c>
       <c r="P46">
-        <f>(L46-I46)/I46</f>
+        <f t="shared" si="7"/>
         <v>1.5762776430017892E-2</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.4026049025462883</v>
       </c>
       <c r="S46">
-        <f>ABS(J46-PI())</f>
+        <f t="shared" si="8"/>
         <v>1.1407346410206909E-2</v>
       </c>
       <c r="T46">
-        <f>ABS(M46-PI())</f>
+        <f t="shared" si="9"/>
         <v>2.7407346410206923E-2</v>
       </c>
+      <c r="W46">
+        <f t="shared" si="5"/>
+        <v>-0.99993280594389389</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="6"/>
+        <v>1.1592393936158275E-2</v>
+      </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:24">
       <c r="A47">
         <v>45</v>
       </c>
@@ -7705,27 +13257,35 @@
         <v>45</v>
       </c>
       <c r="O47">
-        <f>(K47-H47)/H47</f>
+        <f t="shared" si="10"/>
         <v>2.4583578169782949E-3</v>
       </c>
       <c r="P47">
-        <f>(L47-I47)/I47</f>
+        <f t="shared" si="7"/>
         <v>2.1160562838089876E-2</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-5.6273456927685575E-3</v>
       </c>
       <c r="S47">
-        <f>ABS(J47-PI())</f>
+        <f t="shared" si="8"/>
         <v>0.35540734641020677</v>
       </c>
       <c r="T47">
-        <f>ABS(M47-PI())</f>
+        <f t="shared" si="9"/>
         <v>0.35340734641020699</v>
       </c>
+      <c r="W47">
+        <f t="shared" si="5"/>
+        <v>-0.83182571524674565</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="6"/>
+        <v>-0.55503691719942383</v>
+      </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:24">
       <c r="A48">
         <v>46</v>
       </c>
@@ -7769,27 +13329,35 @@
         <v>46</v>
       </c>
       <c r="O48">
-        <f>(K48-H48)/H48</f>
+        <f t="shared" si="10"/>
         <v>9.0652916841537281E-3</v>
       </c>
       <c r="P48">
-        <f>(L48-I48)/I48</f>
+        <f t="shared" si="7"/>
         <v>2.495729511680695E-2</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-4.2468414509630346E-3</v>
       </c>
       <c r="S48">
-        <f>ABS(J48-PI())</f>
+        <f t="shared" si="8"/>
         <v>0.70640734641020675</v>
       </c>
       <c r="T48">
-        <f>ABS(M48-PI())</f>
+        <f t="shared" si="9"/>
         <v>0.70340734641020708</v>
       </c>
+      <c r="W48">
+        <f t="shared" si="5"/>
+        <v>-0.82567010733417034</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="6"/>
+        <v>-0.564153236146687</v>
+      </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:24">
       <c r="A49">
         <v>47</v>
       </c>
@@ -7833,27 +13401,35 @@
         <v>47</v>
       </c>
       <c r="O49">
-        <f>(K49-H49)/H49</f>
+        <f t="shared" si="10"/>
         <v>1.2325918356757077E-2</v>
       </c>
       <c r="P49">
-        <f>(L49-I49)/I49</f>
+        <f t="shared" si="7"/>
         <v>1.8671974815663336E-2</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.4392398107164318E-3</v>
       </c>
       <c r="S49">
-        <f>ABS(J49-PI())</f>
+        <f t="shared" si="8"/>
         <v>1.0594073464102065</v>
       </c>
       <c r="T49">
-        <f>ABS(M49-PI())</f>
+        <f t="shared" si="9"/>
         <v>1.0694073464102072</v>
       </c>
+      <c r="W49">
+        <f t="shared" si="5"/>
+        <v>-0.76586723243463739</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="6"/>
+        <v>-0.64299874205390883</v>
+      </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:24">
       <c r="A50">
         <v>48</v>
       </c>
@@ -7897,27 +13473,35 @@
         <v>48</v>
       </c>
       <c r="O50">
-        <f>(K50-H50)/H50</f>
+        <f t="shared" si="10"/>
         <v>1.1212551673503273E-2</v>
       </c>
       <c r="P50">
-        <f>(L50-I50)/I50</f>
+        <f t="shared" si="7"/>
         <v>4.6680302769516416E-2</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S50">
-        <f>ABS(J50-PI())</f>
+        <f t="shared" si="8"/>
         <v>1.4034073464102068</v>
       </c>
       <c r="T50">
-        <f>ABS(M50-PI())</f>
+        <f t="shared" si="9"/>
         <v>1.4034073464102068</v>
       </c>
+      <c r="W50">
+        <f t="shared" si="5"/>
+        <v>0.41560786511114445</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="6"/>
+        <v>-0.90954389803777846</v>
+      </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:24">
       <c r="A51">
         <v>49</v>
       </c>
@@ -7961,27 +13545,35 @@
         <v>49</v>
       </c>
       <c r="O51">
-        <f>(K51-H51)/H51</f>
+        <f t="shared" si="10"/>
         <v>2.1952377343136098E-2</v>
       </c>
       <c r="P51">
-        <f>(L51-I51)/I51</f>
+        <f t="shared" si="7"/>
         <v>3.2822459786192401E-2</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8.6038412255670365E-3</v>
       </c>
       <c r="S51">
-        <f>ABS(J51-PI())</f>
+        <f t="shared" si="8"/>
         <v>1.7434073464102067</v>
       </c>
       <c r="T51">
-        <f>ABS(M51-PI())</f>
+        <f t="shared" si="9"/>
         <v>1.7584073464102072</v>
       </c>
+      <c r="W51">
+        <f t="shared" si="5"/>
+        <v>-0.22446011637443267</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="6"/>
+        <v>-0.97448327648922539</v>
+      </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:24">
       <c r="A52">
         <v>50</v>
       </c>
@@ -8025,27 +13617,35 @@
         <v>50</v>
       </c>
       <c r="O52">
-        <f>(K52-H52)/H52</f>
+        <f t="shared" si="10"/>
         <v>1.8491557941677384E-2</v>
       </c>
       <c r="P52">
-        <f>(L52-I52)/I52</f>
+        <f t="shared" si="7"/>
         <v>3.9699901220151178E-2</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-4.7677910621939231E-4</v>
       </c>
       <c r="S52">
-        <f>ABS(J52-PI())</f>
+        <f t="shared" si="8"/>
         <v>2.0974073464102068</v>
       </c>
       <c r="T52">
-        <f>ABS(M52-PI())</f>
+        <f t="shared" si="9"/>
         <v>2.0964073464102073</v>
       </c>
+      <c r="W52">
+        <f t="shared" si="5"/>
+        <v>0.19044067729662059</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="6"/>
+        <v>-0.98169870552568439</v>
+      </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:24">
       <c r="A53">
         <v>51</v>
       </c>
@@ -8089,27 +13689,35 @@
         <v>51</v>
       </c>
       <c r="O53">
-        <f>(K53-H53)/H53</f>
+        <f t="shared" si="10"/>
         <v>2.4630856413121544E-2</v>
       </c>
       <c r="P53">
-        <f>(L53-I53)/I53</f>
+        <f t="shared" si="7"/>
         <v>5.2018987190039737E-2</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-3.2674301568852118E-3</v>
       </c>
       <c r="S53">
-        <f>ABS(J53-PI())</f>
+        <f t="shared" si="8"/>
         <v>2.4484073464102067</v>
       </c>
       <c r="T53">
-        <f>ABS(M53-PI())</f>
+        <f t="shared" si="9"/>
         <v>2.4404073464102067</v>
       </c>
+      <c r="W53">
+        <f t="shared" si="5"/>
+        <v>0.60328285199840392</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="6"/>
+        <v>-0.79752730391170423</v>
+      </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:24">
       <c r="A54">
         <v>52</v>
       </c>
@@ -8153,27 +13761,35 @@
         <v>52</v>
       </c>
       <c r="O54">
-        <f>(K54-H54)/H54</f>
+        <f t="shared" si="10"/>
         <v>3.1786024227445274E-2</v>
       </c>
       <c r="P54">
-        <f>(L54-I54)/I54</f>
+        <f t="shared" si="7"/>
         <v>3.1457779089570995E-2</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-9.9558835371907073E-3</v>
       </c>
       <c r="S54">
-        <f>ABS(J54-PI())</f>
+        <f t="shared" si="8"/>
         <v>2.8124073464102066</v>
       </c>
       <c r="T54">
-        <f>ABS(M54-PI())</f>
+        <f t="shared" si="9"/>
         <v>2.784407346410207</v>
       </c>
+      <c r="W54">
+        <f t="shared" si="5"/>
+        <v>0.99116852984510717</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="6"/>
+        <v>0.13260824048560843</v>
+      </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:24">
       <c r="A55">
         <v>53</v>
       </c>
@@ -8217,27 +13833,35 @@
         <v>53</v>
       </c>
       <c r="O55">
-        <f>(K55-H55)/H55</f>
+        <f t="shared" si="10"/>
         <v>-4.7870939945907648E-5</v>
       </c>
       <c r="P55">
-        <f>(L55-I55)/I55</f>
+        <f t="shared" si="7"/>
         <v>4.9811778701253119E-2</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.1441299072531765E-3</v>
       </c>
       <c r="S55">
-        <f>ABS(J55-PI())</f>
+        <f t="shared" si="8"/>
         <v>3.1215926535897931</v>
       </c>
       <c r="T55">
-        <f>ABS(M55-PI())</f>
+        <f t="shared" si="9"/>
         <v>3.1314073464102066</v>
       </c>
+      <c r="W55">
+        <f t="shared" si="5"/>
+        <v>0.97343793068667894</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="6"/>
+        <v>0.22895107577916379</v>
+      </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:24">
       <c r="A56">
         <v>54</v>
       </c>
@@ -8281,27 +13905,35 @@
         <v>54</v>
       </c>
       <c r="O56">
-        <f>(K56-H56)/H56</f>
+        <f t="shared" si="10"/>
         <v>1.9929608622345873E-3</v>
       </c>
       <c r="P56">
-        <f>(L56-I56)/I56</f>
+        <f t="shared" si="7"/>
         <v>4.9479655259134399E-2</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.07890668420152E-3</v>
       </c>
       <c r="S56">
-        <f>ABS(J56-PI())</f>
+        <f t="shared" si="8"/>
         <v>2.7805926535897934</v>
       </c>
       <c r="T56">
-        <f>ABS(M56-PI())</f>
+        <f t="shared" si="9"/>
         <v>2.783592653589793</v>
       </c>
+      <c r="W56">
+        <f t="shared" si="5"/>
+        <v>0.94434937013045239</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="6"/>
+        <v>-0.32894417023899031</v>
+      </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:24">
       <c r="A57">
         <v>55</v>
       </c>
@@ -8345,27 +13977,35 @@
         <v>55</v>
       </c>
       <c r="O57">
-        <f>(K57-H57)/H57</f>
+        <f t="shared" si="10"/>
         <v>-9.2573010977083916E-4</v>
       </c>
       <c r="P57">
-        <f>(L57-I57)/I57</f>
+        <f t="shared" si="7"/>
         <v>4.7491064475549703E-2</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.2981630234410072E-3</v>
       </c>
       <c r="S57">
-        <f>ABS(J57-PI())</f>
+        <f t="shared" si="8"/>
         <v>2.4255926535897929</v>
       </c>
       <c r="T57">
-        <f>ABS(M57-PI())</f>
+        <f t="shared" si="9"/>
         <v>2.4335926535897929</v>
       </c>
+      <c r="W57">
+        <f t="shared" si="5"/>
+        <v>0.89560810146633962</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="6"/>
+        <v>0.44484393733966826</v>
+      </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:24">
       <c r="A58">
         <v>56</v>
       </c>
@@ -8409,27 +14049,35 @@
         <v>56</v>
       </c>
       <c r="O58">
-        <f>(K58-H58)/H58</f>
+        <f t="shared" si="10"/>
         <v>1.1185959087244884E-2</v>
       </c>
       <c r="P58">
-        <f>(L58-I58)/I58</f>
+        <f t="shared" si="7"/>
         <v>4.0143303325371991E-2</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2073837872773713E-2</v>
       </c>
       <c r="S58">
-        <f>ABS(J58-PI())</f>
+        <f t="shared" si="8"/>
         <v>2.0705926535897934</v>
       </c>
       <c r="T58">
-        <f>ABS(M58-PI())</f>
+        <f t="shared" si="9"/>
         <v>2.0955926535897929</v>
       </c>
+      <c r="W58">
+        <f t="shared" si="5"/>
+        <v>-0.23984255900035276</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="6"/>
+        <v>0.97081179787441929</v>
+      </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:24">
       <c r="A59">
         <v>57</v>
       </c>
@@ -8473,27 +14121,35 @@
         <v>57</v>
       </c>
       <c r="O59">
-        <f>(K59-H59)/H59</f>
+        <f t="shared" si="10"/>
         <v>1.7527763594587718E-2</v>
       </c>
       <c r="P59">
-        <f>(L59-I59)/I59</f>
+        <f t="shared" si="7"/>
         <v>2.8682260259485191E-2</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.3247803549867095E-3</v>
       </c>
       <c r="S59">
-        <f>ABS(J59-PI())</f>
+        <f t="shared" si="8"/>
         <v>1.7205926535897931</v>
       </c>
       <c r="T59">
-        <f>ABS(M59-PI())</f>
+        <f t="shared" si="9"/>
         <v>1.7245926535897931</v>
       </c>
+      <c r="W59">
+        <f t="shared" si="5"/>
+        <v>0.2190066870930415</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="6"/>
+        <v>0.97572335782665909</v>
+      </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:24">
       <c r="A60">
         <v>58</v>
       </c>
@@ -8537,27 +14193,35 @@
         <v>58</v>
       </c>
       <c r="O60">
-        <f>(K60-H60)/H60</f>
+        <f t="shared" si="10"/>
         <v>1.5774632157913891E-2</v>
       </c>
       <c r="P60">
-        <f>(L60-I60)/I60</f>
+        <f t="shared" si="7"/>
         <v>6.5038121670335288E-3</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.10408369722636E-2</v>
       </c>
       <c r="S60">
-        <f>ABS(J60-PI())</f>
+        <f t="shared" si="8"/>
         <v>1.3585926535897932</v>
       </c>
       <c r="T60">
-        <f>ABS(M60-PI())</f>
+        <f t="shared" si="9"/>
         <v>1.3735926535897931</v>
       </c>
+      <c r="W60">
+        <f t="shared" si="5"/>
+        <v>-0.78901474722953113</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="6"/>
+        <v>0.61437425780571175</v>
+      </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:24">
       <c r="A61">
         <v>59</v>
       </c>
@@ -8601,27 +14265,35 @@
         <v>59</v>
       </c>
       <c r="O61">
-        <f>(K61-H61)/H61</f>
+        <f t="shared" si="10"/>
         <v>1.6769849374521348E-2</v>
       </c>
       <c r="P61">
-        <f>(L61-I61)/I61</f>
+        <f t="shared" si="7"/>
         <v>5.1091574274077633E-3</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5.9137033752125158E-3</v>
       </c>
       <c r="S61">
-        <f>ABS(J61-PI())</f>
+        <f t="shared" si="8"/>
         <v>1.0145926535897933</v>
       </c>
       <c r="T61">
-        <f>ABS(M61-PI())</f>
+        <f t="shared" si="9"/>
         <v>1.0205926535897931</v>
       </c>
+      <c r="W61">
+        <f t="shared" si="5"/>
+        <v>-0.2524424904859896</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="6"/>
+        <v>0.96761189998740249</v>
+      </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:24">
       <c r="A62">
         <v>60</v>
       </c>
@@ -8665,27 +14337,35 @@
         <v>60</v>
       </c>
       <c r="O62">
-        <f>(K62-H62)/H62</f>
+        <f t="shared" si="10"/>
         <v>1.0566440983436514E-2</v>
       </c>
       <c r="P62">
-        <f>(L62-I62)/I62</f>
+        <f t="shared" si="7"/>
         <v>-1.6669990029910522E-3</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-6.1013496385254199E-3</v>
       </c>
       <c r="S62">
-        <f>ABS(J62-PI())</f>
+        <f t="shared" si="8"/>
         <v>0.65559265358979291</v>
       </c>
       <c r="T62">
-        <f>ABS(M62-PI())</f>
+        <f t="shared" si="9"/>
         <v>0.6515926535897929</v>
       </c>
+      <c r="W62">
+        <f t="shared" si="5"/>
+        <v>-0.99554693536621508</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="6"/>
+        <v>-9.4267170759163188E-2</v>
+      </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:24">
       <c r="A63">
         <v>61</v>
       </c>
@@ -8729,27 +14409,35 @@
         <v>61</v>
       </c>
       <c r="O63">
-        <f>(K63-H63)/H63</f>
+        <f t="shared" si="10"/>
         <v>1.9131717429437117E-2</v>
       </c>
       <c r="P63">
-        <f>(L63-I63)/I63</f>
+        <f t="shared" si="7"/>
         <v>1.0725325568872995E-2</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.5349132525747567E-2</v>
       </c>
       <c r="S63">
-        <f>ABS(J63-PI())</f>
+        <f t="shared" si="8"/>
         <v>0.31559265358979305</v>
       </c>
       <c r="T63">
-        <f>ABS(M63-PI())</f>
+        <f t="shared" si="9"/>
         <v>0.30759265358979304</v>
       </c>
+      <c r="W63">
+        <f t="shared" si="5"/>
+        <v>-0.82102473187824088</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="6"/>
+        <v>0.57089262531956286</v>
+      </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:24">
       <c r="A64">
         <v>62</v>
       </c>
@@ -8793,27 +14481,35 @@
         <v>62</v>
       </c>
       <c r="O64">
-        <f>(K64-H64)/H64</f>
+        <f t="shared" si="10"/>
         <v>2.2715121336174267E-2</v>
       </c>
       <c r="P64">
-        <f>(L64-I64)/I64</f>
+        <f t="shared" si="7"/>
         <v>1.7333572582092265E-2</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.167570166080826</v>
       </c>
       <c r="S64">
-        <f>ABS(J64-PI())</f>
+        <f t="shared" si="8"/>
         <v>2.7407346410206923E-2</v>
       </c>
       <c r="T64">
-        <f>ABS(M64-PI())</f>
+        <f t="shared" si="9"/>
         <v>5.9407346410206952E-2</v>
       </c>
+      <c r="W64">
+        <f t="shared" si="5"/>
+        <v>-0.90662013266307961</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="6"/>
+        <v>0.42194778711350039</v>
+      </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:24">
       <c r="A65">
         <v>63</v>
       </c>
@@ -8857,27 +14553,35 @@
         <v>63</v>
       </c>
       <c r="O65">
-        <f>(K65-H65)/H65</f>
+        <f t="shared" si="10"/>
         <v>2.1250991221463775E-2</v>
       </c>
       <c r="P65">
-        <f>(L65-I65)/I65</f>
+        <f t="shared" si="7"/>
         <v>2.0869800991255658E-2</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6.4101306318133044E-2</v>
       </c>
       <c r="S65">
-        <f>ABS(J65-PI())</f>
+        <f t="shared" si="8"/>
         <v>0.3744073464102069</v>
       </c>
       <c r="T65">
-        <f>ABS(M65-PI())</f>
+        <f t="shared" si="9"/>
         <v>0.39840734641020692</v>
       </c>
+      <c r="W65">
+        <f t="shared" si="5"/>
+        <v>-0.77289374145918555</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="6"/>
+        <v>-0.63453547135934141</v>
+      </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:24">
       <c r="A66">
         <v>64</v>
       </c>
@@ -8921,27 +14625,35 @@
         <v>64</v>
       </c>
       <c r="O66">
-        <f>(K66-H66)/H66</f>
+        <f t="shared" si="10"/>
         <v>-1.2742810267519441E-2</v>
       </c>
       <c r="P66">
-        <f>(L66-I66)/I66</f>
+        <f t="shared" ref="P66:P101" si="11">(L66-I66)/I66</f>
         <v>1.2991309893964706E-2</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.2364880763784862E-2</v>
       </c>
       <c r="S66">
-        <f>ABS(J66-PI())</f>
+        <f t="shared" ref="S66:S101" si="12">ABS(J66-PI())</f>
         <v>0.71540734641020709</v>
       </c>
       <c r="T66">
-        <f>ABS(M66-PI())</f>
+        <f t="shared" ref="T66:T101" si="13">ABS(M66-PI())</f>
         <v>0.69940734641020708</v>
       </c>
+      <c r="W66">
+        <f t="shared" si="5"/>
+        <v>-0.5674362717412631</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="6"/>
+        <v>-0.82341731674308105</v>
+      </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:24">
       <c r="A67">
         <v>65</v>
       </c>
@@ -8985,27 +14697,35 @@
         <v>65</v>
       </c>
       <c r="O67">
-        <f>(K67-H67)/H67</f>
+        <f t="shared" ref="O67:O101" si="14">(K67-H67)/H67</f>
         <v>-1.1259168265338303E-2</v>
       </c>
       <c r="P67">
-        <f>(L67-I67)/I67</f>
+        <f t="shared" si="11"/>
         <v>6.4905515771322012E-3</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q101" si="1">(T67-S67)/S67</f>
+        <f t="shared" ref="Q67:Q101" si="15">(T67-S67)/S67</f>
         <v>-9.3509737272437846E-4</v>
       </c>
       <c r="S67">
-        <f>ABS(J67-PI())</f>
+        <f t="shared" si="12"/>
         <v>1.0694073464102072</v>
       </c>
       <c r="T67">
-        <f>ABS(M67-PI())</f>
+        <f t="shared" si="13"/>
         <v>1.0684073464102068</v>
       </c>
+      <c r="W67">
+        <f t="shared" ref="W67:W101" si="16">COS(D67)</f>
+        <v>-0.38608984132033813</v>
+      </c>
+      <c r="X67">
+        <f t="shared" ref="X67:X101" si="17">SIN(D67)</f>
+        <v>-0.92246118315582049</v>
+      </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:24">
       <c r="A68">
         <v>66</v>
       </c>
@@ -9049,27 +14769,35 @@
         <v>66</v>
       </c>
       <c r="O68">
-        <f>(K68-H68)/H68</f>
+        <f t="shared" si="14"/>
         <v>1.722620294657682E-2</v>
       </c>
       <c r="P68">
-        <f>(L68-I68)/I68</f>
+        <f t="shared" si="11"/>
         <v>2.5981317342379916E-2</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>7.0901502501780891E-4</v>
       </c>
       <c r="S68">
-        <f>ABS(J68-PI())</f>
+        <f t="shared" si="12"/>
         <v>1.4104073464102065</v>
       </c>
       <c r="T68">
-        <f>ABS(M68-PI())</f>
+        <f t="shared" si="13"/>
         <v>1.4114073464102068</v>
       </c>
+      <c r="W68">
+        <f t="shared" si="16"/>
+        <v>1.5610385545222035E-2</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="17"/>
+        <v>-0.9998781505079154</v>
+      </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:24">
       <c r="A69">
         <v>67</v>
       </c>
@@ -9113,27 +14841,35 @@
         <v>67</v>
       </c>
       <c r="O69">
-        <f>(K69-H69)/H69</f>
+        <f t="shared" si="14"/>
         <v>-3.8679711276470453E-3</v>
       </c>
       <c r="P69">
-        <f>(L69-I69)/I69</f>
+        <f t="shared" si="11"/>
         <v>1.0293912523662442E-2</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-1.9949756863259633E-2</v>
       </c>
       <c r="S69">
-        <f>ABS(J69-PI())</f>
+        <f t="shared" si="12"/>
         <v>1.7544073464102068</v>
       </c>
       <c r="T69">
-        <f>ABS(M69-PI())</f>
+        <f t="shared" si="13"/>
         <v>1.7194073464102066</v>
       </c>
+      <c r="W69">
+        <f t="shared" si="16"/>
+        <v>-0.66492169906803844</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="17"/>
+        <v>-0.74691306998102058</v>
+      </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:24">
       <c r="A70">
         <v>68</v>
       </c>
@@ -9177,27 +14913,35 @@
         <v>68</v>
       </c>
       <c r="O70">
-        <f>(K70-H70)/H70</f>
+        <f t="shared" si="14"/>
         <v>-6.7039239664285679E-3</v>
       </c>
       <c r="P70">
-        <f>(L70-I70)/I70</f>
+        <f t="shared" si="11"/>
         <v>9.8180687543848212E-3</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-2.7098887953053784E-2</v>
       </c>
       <c r="S70">
-        <f>ABS(J70-PI())</f>
+        <f t="shared" si="12"/>
         <v>2.103407346410207</v>
       </c>
       <c r="T70">
-        <f>ABS(M70-PI())</f>
+        <f t="shared" si="13"/>
         <v>2.0464073464102066</v>
       </c>
+      <c r="W70">
+        <f t="shared" si="16"/>
+        <v>0.34253238396425267</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="17"/>
+        <v>-0.93950602229882796</v>
+      </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:24">
       <c r="A71">
         <v>69</v>
       </c>
@@ -9241,27 +14985,35 @@
         <v>69</v>
       </c>
       <c r="O71">
-        <f>(K71-H71)/H71</f>
+        <f t="shared" si="14"/>
         <v>-8.3213830465264441E-3</v>
       </c>
       <c r="P71">
-        <f>(L71-I71)/I71</f>
+        <f t="shared" si="11"/>
         <v>-2.0205200975780931E-2</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-1.633048094618787E-3</v>
       </c>
       <c r="S71">
-        <f>ABS(J71-PI())</f>
+        <f t="shared" si="12"/>
         <v>2.4494073464102071</v>
       </c>
       <c r="T71">
-        <f>ABS(M71-PI())</f>
+        <f t="shared" si="13"/>
         <v>2.4454073464102066</v>
       </c>
+      <c r="W71">
+        <f t="shared" si="16"/>
+        <v>0.69872308389367721</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="17"/>
+        <v>-0.71539223649275741</v>
+      </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:24">
       <c r="A72">
         <v>70</v>
       </c>
@@ -9305,27 +15057,35 @@
         <v>70</v>
       </c>
       <c r="O72">
-        <f>(K72-H72)/H72</f>
+        <f t="shared" si="14"/>
         <v>-7.2930483030021276E-3</v>
       </c>
       <c r="P72">
-        <f>(L72-I72)/I72</f>
+        <f t="shared" si="11"/>
         <v>-2.475095571615929E-2</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-1.0751118484043352E-3</v>
       </c>
       <c r="S72">
-        <f>ABS(J72-PI())</f>
+        <f t="shared" si="12"/>
         <v>2.7904073464102073</v>
       </c>
       <c r="T72">
-        <f>ABS(M72-PI())</f>
+        <f t="shared" si="13"/>
         <v>2.7874073464102072</v>
       </c>
+      <c r="W72">
+        <f t="shared" si="16"/>
+        <v>0.95318844267894309</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="17"/>
+        <v>-0.30237690510899007</v>
+      </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:24">
       <c r="A73">
         <v>71</v>
       </c>
@@ -9369,27 +15129,35 @@
         <v>71</v>
       </c>
       <c r="O73">
-        <f>(K73-H73)/H73</f>
+        <f t="shared" si="14"/>
         <v>-1.4526669373005093E-2</v>
       </c>
       <c r="P73">
-        <f>(L73-I73)/I73</f>
+        <f t="shared" si="11"/>
         <v>-1.9434896684822896E-2</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-7.9632864555107888E-3</v>
       </c>
       <c r="S73">
-        <f>ABS(J73-PI())</f>
+        <f t="shared" si="12"/>
         <v>3.1394073464102066</v>
       </c>
       <c r="T73">
-        <f>ABS(M73-PI())</f>
+        <f t="shared" si="13"/>
         <v>3.1144073464102071</v>
       </c>
+      <c r="W73">
+        <f t="shared" si="16"/>
+        <v>0.96403714587271605</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="17"/>
+        <v>0.2657675325873865</v>
+      </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:24">
       <c r="A74">
         <v>72</v>
       </c>
@@ -9433,27 +15201,35 @@
         <v>72</v>
       </c>
       <c r="O74">
-        <f>(K74-H74)/H74</f>
+        <f t="shared" si="14"/>
         <v>-2.7189659014932002E-2</v>
       </c>
       <c r="P74">
-        <f>(L74-I74)/I74</f>
+        <f t="shared" si="11"/>
         <v>-9.4024387326246441E-3</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-2.1431689329182409E-3</v>
       </c>
       <c r="S74">
-        <f>ABS(J74-PI())</f>
+        <f t="shared" si="12"/>
         <v>2.799592653589793</v>
       </c>
       <c r="T74">
-        <f>ABS(M74-PI())</f>
+        <f t="shared" si="13"/>
         <v>2.7935926535897933</v>
       </c>
+      <c r="W74">
+        <f t="shared" si="16"/>
+        <v>0.96940529147508447</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="17"/>
+        <v>0.24546564089523104</v>
+      </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:24">
       <c r="A75">
         <v>73</v>
       </c>
@@ -9497,27 +15273,35 @@
         <v>73</v>
       </c>
       <c r="O75">
-        <f>(K75-H75)/H75</f>
+        <f t="shared" si="14"/>
         <v>1.2858942266298886E-2</v>
       </c>
       <c r="P75">
-        <f>(L75-I75)/I75</f>
+        <f t="shared" si="11"/>
         <v>2.549432661463995E-3</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>5.2811337330903093E-3</v>
       </c>
       <c r="S75">
-        <f>ABS(J75-PI())</f>
+        <f t="shared" si="12"/>
         <v>2.461592653589793</v>
       </c>
       <c r="T75">
-        <f>ABS(M75-PI())</f>
+        <f t="shared" si="13"/>
         <v>2.4745926535897933</v>
       </c>
+      <c r="W75">
+        <f t="shared" si="16"/>
+        <v>0.95414676876945093</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="17"/>
+        <v>0.29933917826909318</v>
+      </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:24">
       <c r="A76">
         <v>74</v>
       </c>
@@ -9561,27 +15345,35 @@
         <v>74</v>
       </c>
       <c r="O76">
-        <f>(K76-H76)/H76</f>
+        <f t="shared" si="14"/>
         <v>5.1837437795072838E-4</v>
       </c>
       <c r="P76">
-        <f>(L76-I76)/I76</f>
+        <f t="shared" si="11"/>
         <v>7.5827114179692127E-5</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>5.6508012399244072E-3</v>
       </c>
       <c r="S76">
-        <f>ABS(J76-PI())</f>
+        <f t="shared" si="12"/>
         <v>2.1235926535897933</v>
       </c>
       <c r="T76">
-        <f>ABS(M76-PI())</f>
+        <f t="shared" si="13"/>
         <v>2.1355926535897929</v>
       </c>
+      <c r="W76">
+        <f t="shared" si="16"/>
+        <v>0.34646149375436031</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="17"/>
+        <v>0.93806419468259061</v>
+      </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:24">
       <c r="A77">
         <v>75</v>
       </c>
@@ -9625,27 +15417,35 @@
         <v>75</v>
       </c>
       <c r="O77">
-        <f>(K77-H77)/H77</f>
+        <f t="shared" si="14"/>
         <v>2.896439419035788E-2</v>
       </c>
       <c r="P77">
-        <f>(L77-I77)/I77</f>
+        <f t="shared" si="11"/>
         <v>9.8085847099593018E-3</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>4.5157107553982796E-3</v>
       </c>
       <c r="S77">
-        <f>ABS(J77-PI())</f>
+        <f t="shared" si="12"/>
         <v>1.771592653589793</v>
       </c>
       <c r="T77">
-        <f>ABS(M77-PI())</f>
+        <f t="shared" si="13"/>
         <v>1.779592653589793</v>
       </c>
+      <c r="W77">
+        <f t="shared" si="16"/>
+        <v>0.41122389040539764</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="17"/>
+        <v>0.91153437234141066</v>
+      </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:24">
       <c r="A78">
         <v>76</v>
       </c>
@@ -9689,27 +15489,35 @@
         <v>76</v>
       </c>
       <c r="O78">
-        <f>(K78-H78)/H78</f>
+        <f t="shared" si="14"/>
         <v>2.5596193304751207E-2</v>
       </c>
       <c r="P78">
-        <f>(L78-I78)/I78</f>
+        <f t="shared" si="11"/>
         <v>8.1726538123050099E-3</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>1.4048962636585085E-3</v>
       </c>
       <c r="S78">
-        <f>ABS(J78-PI())</f>
+        <f t="shared" si="12"/>
         <v>1.4235926535897931</v>
       </c>
       <c r="T78">
-        <f>ABS(M78-PI())</f>
+        <f t="shared" si="13"/>
         <v>1.4255926535897931</v>
       </c>
+      <c r="W78">
+        <f t="shared" si="16"/>
+        <v>-0.43874686521639422</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="17"/>
+        <v>0.89861069894742918</v>
+      </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:24">
       <c r="A79">
         <v>77</v>
       </c>
@@ -9753,27 +15561,35 @@
         <v>77</v>
       </c>
       <c r="O79">
-        <f>(K79-H79)/H79</f>
+        <f t="shared" si="14"/>
         <v>1.7945902784709072E-2</v>
       </c>
       <c r="P79">
-        <f>(L79-I79)/I79</f>
+        <f t="shared" si="11"/>
         <v>1.9125617535613319E-2</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-2.1343872309615371E-2</v>
       </c>
       <c r="S79">
-        <f>ABS(J79-PI())</f>
+        <f t="shared" si="12"/>
         <v>1.0775926535897931</v>
       </c>
       <c r="T79">
-        <f>ABS(M79-PI())</f>
+        <f t="shared" si="13"/>
         <v>1.0545926535897929</v>
       </c>
+      <c r="W79">
+        <f t="shared" si="16"/>
+        <v>-0.90235539448734825</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="17"/>
+        <v>0.43099274012398642</v>
+      </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:24">
       <c r="A80">
         <v>78</v>
       </c>
@@ -9817,27 +15633,35 @@
         <v>78</v>
       </c>
       <c r="O80">
-        <f>(K80-H80)/H80</f>
+        <f t="shared" si="14"/>
         <v>2.1387172486468379E-2</v>
       </c>
       <c r="P80">
-        <f>(L80-I80)/I80</f>
+        <f t="shared" si="11"/>
         <v>2.479048045550504E-2</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-2.8981800872478734E-2</v>
       </c>
       <c r="S80">
-        <f>ABS(J80-PI())</f>
+        <f t="shared" si="12"/>
         <v>0.7245926535897933</v>
       </c>
       <c r="T80">
-        <f>ABS(M80-PI())</f>
+        <f t="shared" si="13"/>
         <v>0.70359265358979295</v>
       </c>
+      <c r="W80">
+        <f t="shared" si="16"/>
+        <v>-0.32518151919822674</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="17"/>
+        <v>0.94565161638519568</v>
+      </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:24">
       <c r="A81">
         <v>79</v>
       </c>
@@ -9881,27 +15705,35 @@
         <v>79</v>
       </c>
       <c r="O81">
-        <f>(K81-H81)/H81</f>
+        <f t="shared" si="14"/>
         <v>3.9534809469836188E-2</v>
       </c>
       <c r="P81">
-        <f>(L81-I81)/I81</f>
+        <f t="shared" si="11"/>
         <v>1.1029308848640857E-2</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>7.0730466852620855E-2</v>
       </c>
       <c r="S81">
-        <f>ABS(J81-PI())</f>
+        <f t="shared" si="12"/>
         <v>0.36759265358979309</v>
       </c>
       <c r="T81">
-        <f>ABS(M81-PI())</f>
+        <f t="shared" si="13"/>
         <v>0.3935926535897929</v>
       </c>
+      <c r="W81">
+        <f t="shared" si="16"/>
+        <v>-0.98987719861471479</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="17"/>
+        <v>-0.14192650091749751</v>
+      </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:24">
       <c r="A82">
         <v>80</v>
       </c>
@@ -9945,27 +15777,35 @@
         <v>80</v>
       </c>
       <c r="O82">
-        <f>(K82-H82)/H82</f>
+        <f t="shared" si="14"/>
         <v>4.0775715618794006E-2</v>
       </c>
       <c r="P82">
-        <f>(L82-I82)/I82</f>
+        <f t="shared" si="11"/>
         <v>-9.7085825149509797E-3</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>6.2844381465749306</v>
       </c>
       <c r="S82">
-        <f>ABS(J82-PI())</f>
+        <f t="shared" si="12"/>
         <v>8.5926535897931089E-3</v>
       </c>
       <c r="T82">
-        <f>ABS(M82-PI())</f>
+        <f t="shared" si="13"/>
         <v>6.2592653589792935E-2</v>
       </c>
+      <c r="W82">
+        <f t="shared" si="16"/>
+        <v>-0.99323231225695718</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="17"/>
+        <v>-0.11614462488078549</v>
+      </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:24">
       <c r="A83">
         <v>81</v>
       </c>
@@ -10009,27 +15849,35 @@
         <v>81</v>
       </c>
       <c r="O83">
-        <f>(K83-H83)/H83</f>
+        <f t="shared" si="14"/>
         <v>5.8696310221769146E-2</v>
       </c>
       <c r="P83">
-        <f>(L83-I83)/I83</f>
+        <f t="shared" si="11"/>
         <v>-1.1168804153899087E-2</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-0.12522087082920769</v>
       </c>
       <c r="S83">
-        <f>ABS(J83-PI())</f>
+        <f t="shared" si="12"/>
         <v>0.33540734641020675</v>
       </c>
       <c r="T83">
-        <f>ABS(M83-PI())</f>
+        <f t="shared" si="13"/>
         <v>0.29340734641020694</v>
       </c>
+      <c r="W83">
+        <f t="shared" si="16"/>
+        <v>-0.61342409706374601</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="17"/>
+        <v>-0.78975368130925983</v>
+      </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:24">
       <c r="A84">
         <v>82</v>
       </c>
@@ -10073,27 +15921,35 @@
         <v>82</v>
       </c>
       <c r="O84">
-        <f>(K84-H84)/H84</f>
+        <f t="shared" si="14"/>
         <v>3.4847288990935359E-2</v>
       </c>
       <c r="P84">
-        <f>(L84-I84)/I84</f>
+        <f t="shared" si="11"/>
         <v>-2.8950306309046075E-2</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>2.4839008653496787E-2</v>
       </c>
       <c r="S84">
-        <f>ABS(J84-PI())</f>
+        <f t="shared" si="12"/>
         <v>0.68440734641020695</v>
       </c>
       <c r="T84">
-        <f>ABS(M84-PI())</f>
+        <f t="shared" si="13"/>
         <v>0.70140734641020686</v>
       </c>
+      <c r="W84">
+        <f t="shared" si="16"/>
+        <v>-0.64680601796901549</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="17"/>
+        <v>-0.76265455818415306</v>
+      </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:24">
       <c r="A85">
         <v>83</v>
       </c>
@@ -10137,27 +15993,35 @@
         <v>83</v>
       </c>
       <c r="O85">
-        <f>(K85-H85)/H85</f>
+        <f t="shared" si="14"/>
         <v>2.1245301519856236E-2</v>
       </c>
       <c r="P85">
-        <f>(L85-I85)/I85</f>
+        <f t="shared" si="11"/>
         <v>-1.0695379739997847E-2</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-1.9428654817504E-3</v>
       </c>
       <c r="S85">
-        <f>ABS(J85-PI())</f>
+        <f t="shared" si="12"/>
         <v>1.0294073464102071</v>
       </c>
       <c r="T85">
-        <f>ABS(M85-PI())</f>
+        <f t="shared" si="13"/>
         <v>1.0274073464102065</v>
       </c>
+      <c r="W85">
+        <f t="shared" si="16"/>
+        <v>-0.3731379704378176</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="17"/>
+        <v>-0.92777586464487549</v>
+      </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:24">
       <c r="A86">
         <v>84</v>
       </c>
@@ -10201,27 +16065,35 @@
         <v>84</v>
       </c>
       <c r="O86">
-        <f>(K86-H86)/H86</f>
+        <f t="shared" si="14"/>
         <v>1.3919883954474428E-2</v>
       </c>
       <c r="P86">
-        <f>(L86-I86)/I86</f>
+        <f t="shared" si="11"/>
         <v>5.1116728529374926E-3</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-1.1565646258506786E-2</v>
       </c>
       <c r="S86">
-        <f>ABS(J86-PI())</f>
+        <f t="shared" si="12"/>
         <v>1.3834073464102072</v>
       </c>
       <c r="T86">
-        <f>ABS(M86-PI())</f>
+        <f t="shared" si="13"/>
         <v>1.3674073464102072</v>
       </c>
+      <c r="W86">
+        <f t="shared" si="16"/>
+        <v>-0.18137944359281138</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="17"/>
+        <v>-0.98341318754731077</v>
+      </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:24">
       <c r="A87">
         <v>85</v>
       </c>
@@ -10265,27 +16137,35 @@
         <v>85</v>
       </c>
       <c r="O87">
-        <f>(K87-H87)/H87</f>
+        <f t="shared" si="14"/>
         <v>1.0639272863478442E-3</v>
       </c>
       <c r="P87">
-        <f>(L87-I87)/I87</f>
+        <f t="shared" si="11"/>
         <v>-2.9796863193497714E-2</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-1.2728480960054267E-2</v>
       </c>
       <c r="S87">
-        <f>ABS(J87-PI())</f>
+        <f t="shared" si="12"/>
         <v>1.728407346410207</v>
       </c>
       <c r="T87">
-        <f>ABS(M87-PI())</f>
+        <f t="shared" si="13"/>
         <v>1.7064073464102067</v>
       </c>
+      <c r="W87">
+        <f t="shared" si="16"/>
+        <v>0.17175515060844929</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="17"/>
+        <v>-0.98513966940706887</v>
+      </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:24">
       <c r="A88">
         <v>86</v>
       </c>
@@ -10329,27 +16209,35 @@
         <v>86</v>
       </c>
       <c r="O88">
-        <f>(K88-H88)/H88</f>
+        <f t="shared" si="14"/>
         <v>1.0660301038930953E-2</v>
       </c>
       <c r="P88">
-        <f>(L88-I88)/I88</f>
+        <f t="shared" si="11"/>
         <v>2.3412560479117847E-3</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>1.9227003821641039E-2</v>
       </c>
       <c r="S88">
-        <f>ABS(J88-PI())</f>
+        <f t="shared" si="12"/>
         <v>2.0804073464102073</v>
       </c>
       <c r="T88">
-        <f>ABS(M88-PI())</f>
+        <f t="shared" si="13"/>
         <v>2.1204073464102065</v>
       </c>
+      <c r="W88">
+        <f t="shared" si="16"/>
+        <v>0.78865049757539496</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="17"/>
+        <v>-0.61484176230480803</v>
+      </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:24">
       <c r="A89">
         <v>87</v>
       </c>
@@ -10393,27 +16281,35 @@
         <v>87</v>
       </c>
       <c r="O89">
-        <f>(K89-H89)/H89</f>
+        <f t="shared" si="14"/>
         <v>1.99622121064758E-2</v>
       </c>
       <c r="P89">
-        <f>(L89-I89)/I89</f>
+        <f t="shared" si="11"/>
         <v>3.3007847600790806E-2</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>1.4818428886862293E-2</v>
       </c>
       <c r="S89">
-        <f>ABS(J89-PI())</f>
+        <f t="shared" si="12"/>
         <v>2.4294073464102066</v>
       </c>
       <c r="T89">
-        <f>ABS(M89-PI())</f>
+        <f t="shared" si="13"/>
         <v>2.4654073464102071</v>
       </c>
+      <c r="W89">
+        <f t="shared" si="16"/>
+        <v>0.96044922201689242</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="17"/>
+        <v>-0.27845518836456612</v>
+      </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:24">
       <c r="A90">
         <v>88</v>
       </c>
@@ -10457,27 +16353,35 @@
         <v>88</v>
       </c>
       <c r="O90">
-        <f>(K90-H90)/H90</f>
+        <f t="shared" si="14"/>
         <v>1.7303616109136648E-2</v>
       </c>
       <c r="P90">
-        <f>(L90-I90)/I90</f>
+        <f t="shared" si="11"/>
         <v>4.366430146706312E-2</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>1.0084975476023918E-2</v>
       </c>
       <c r="S90">
-        <f>ABS(J90-PI())</f>
+        <f t="shared" si="12"/>
         <v>2.776407346410207</v>
       </c>
       <c r="T90">
-        <f>ABS(M90-PI())</f>
+        <f t="shared" si="13"/>
         <v>2.8044073464102066</v>
       </c>
+      <c r="W90">
+        <f t="shared" si="16"/>
+        <v>0.24508854269136174</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="17"/>
+        <v>-0.96950069945380879</v>
+      </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:24">
       <c r="A91">
         <v>89</v>
       </c>
@@ -10521,27 +16425,35 @@
         <v>89</v>
       </c>
       <c r="O91">
-        <f>(K91-H91)/H91</f>
+        <f t="shared" si="14"/>
         <v>2.2475089677162143E-2</v>
       </c>
       <c r="P91">
-        <f>(L91-I91)/I91</f>
+        <f t="shared" si="11"/>
         <v>2.5805936164263202E-2</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-1.2197620577928177E-3</v>
       </c>
       <c r="S91">
-        <f>ABS(J91-PI())</f>
+        <f t="shared" si="12"/>
         <v>3.127407346410207</v>
       </c>
       <c r="T91">
-        <f>ABS(M91-PI())</f>
+        <f t="shared" si="13"/>
         <v>3.1235926535897933</v>
       </c>
+      <c r="W91">
+        <f t="shared" si="16"/>
+        <v>0.95349034293947443</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="17"/>
+        <v>-0.30142356563673556</v>
+      </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:24">
       <c r="A92">
         <v>90</v>
       </c>
@@ -10585,27 +16497,35 @@
         <v>90</v>
       </c>
       <c r="O92">
-        <f>(K92-H92)/H92</f>
+        <f t="shared" si="14"/>
         <v>1.9093183339175795E-2</v>
       </c>
       <c r="P92">
-        <f>(L92-I92)/I92</f>
+        <f t="shared" si="11"/>
         <v>1.603496212968589E-2</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-1.4848373429343822E-2</v>
       </c>
       <c r="S92">
-        <f>ABS(J92-PI())</f>
+        <f t="shared" si="12"/>
         <v>2.8285926535897929</v>
       </c>
       <c r="T92">
-        <f>ABS(M92-PI())</f>
+        <f t="shared" si="13"/>
         <v>2.7865926535897931</v>
       </c>
+      <c r="W92">
+        <f t="shared" si="16"/>
+        <v>0.97803091472414827</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="17"/>
+        <v>0.20845989984609956</v>
+      </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:24">
       <c r="A93">
         <v>91</v>
       </c>
@@ -10649,27 +16569,35 @@
         <v>91</v>
       </c>
       <c r="O93">
-        <f>(K93-H93)/H93</f>
+        <f t="shared" si="14"/>
         <v>3.9991404832394162E-2</v>
       </c>
       <c r="P93">
-        <f>(L93-I93)/I93</f>
+        <f t="shared" si="11"/>
         <v>2.1180755223308423E-2</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-1.6157747092195101E-3</v>
       </c>
       <c r="S93">
-        <f>ABS(J93-PI())</f>
+        <f t="shared" si="12"/>
         <v>2.4755926535897932</v>
       </c>
       <c r="T93">
-        <f>ABS(M93-PI())</f>
+        <f t="shared" si="13"/>
         <v>2.4715926535897932</v>
       </c>
+      <c r="W93">
+        <f t="shared" si="16"/>
+        <v>0.13438848816708632</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="17"/>
+        <v>0.99092872309170899</v>
+      </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:24">
       <c r="A94">
         <v>92</v>
       </c>
@@ -10713,27 +16641,35 @@
         <v>92</v>
       </c>
       <c r="O94">
-        <f>(K94-H94)/H94</f>
+        <f t="shared" si="14"/>
         <v>3.6284002577791366E-2</v>
       </c>
       <c r="P94">
-        <f>(L94-I94)/I94</f>
+        <f t="shared" si="11"/>
         <v>1.3985483523239995E-2</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>7.0668293205630719E-3</v>
       </c>
       <c r="S94">
-        <f>ABS(J94-PI())</f>
+        <f t="shared" si="12"/>
         <v>2.122592653589793</v>
       </c>
       <c r="T94">
-        <f>ABS(M94-PI())</f>
+        <f t="shared" si="13"/>
         <v>2.1375926535897931</v>
       </c>
+      <c r="W94">
+        <f t="shared" si="16"/>
+        <v>0.65470805647604291</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="17"/>
+        <v>0.75588184313777673</v>
+      </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:24">
       <c r="A95">
         <v>93</v>
       </c>
@@ -10777,27 +16713,35 @@
         <v>93</v>
       </c>
       <c r="O95">
-        <f>(K95-H95)/H95</f>
+        <f t="shared" si="14"/>
         <v>3.1209611033122482E-2</v>
       </c>
       <c r="P95">
-        <f>(L95-I95)/I95</f>
+        <f t="shared" si="11"/>
         <v>7.2862216192490061E-3</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-5.609806581365111E-4</v>
       </c>
       <c r="S95">
-        <f>ABS(J95-PI())</f>
+        <f t="shared" si="12"/>
         <v>1.7825926535897931</v>
       </c>
       <c r="T95">
-        <f>ABS(M95-PI())</f>
+        <f t="shared" si="13"/>
         <v>1.781592653589793</v>
       </c>
+      <c r="W95">
+        <f t="shared" si="16"/>
+        <v>0.45181280070179025</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="17"/>
+        <v>0.89211276928536587</v>
+      </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:24">
       <c r="A96">
         <v>94</v>
       </c>
@@ -10841,27 +16785,35 @@
         <v>94</v>
       </c>
       <c r="O96">
-        <f>(K96-H96)/H96</f>
+        <f t="shared" si="14"/>
         <v>2.0187323092580235E-2</v>
       </c>
       <c r="P96">
-        <f>(L96-I96)/I96</f>
+        <f t="shared" si="11"/>
         <v>1.3538118289208933E-2</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-5.5687323612642805E-3</v>
       </c>
       <c r="S96">
-        <f>ABS(J96-PI())</f>
+        <f t="shared" si="12"/>
         <v>1.436592653589793</v>
       </c>
       <c r="T96">
-        <f>ABS(M96-PI())</f>
+        <f t="shared" si="13"/>
         <v>1.428592653589793</v>
       </c>
+      <c r="W96">
+        <f t="shared" si="16"/>
+        <v>0.11851710370345009</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="17"/>
+        <v>0.99295201099033259</v>
+      </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:24">
       <c r="A97">
         <v>95</v>
       </c>
@@ -10905,27 +16857,35 @@
         <v>95</v>
       </c>
       <c r="O97">
-        <f>(K97-H97)/H97</f>
+        <f t="shared" si="14"/>
         <v>2.6471745585061449E-2</v>
       </c>
       <c r="P97">
-        <f>(L97-I97)/I97</f>
+        <f t="shared" si="11"/>
         <v>2.3497871627417054E-3</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-5.4665088914144493E-3</v>
       </c>
       <c r="S97">
-        <f>ABS(J97-PI())</f>
+        <f t="shared" si="12"/>
         <v>1.0975926535897931</v>
       </c>
       <c r="T97">
-        <f>ABS(M97-PI())</f>
+        <f t="shared" si="13"/>
         <v>1.0915926535897933</v>
       </c>
+      <c r="W97">
+        <f t="shared" si="16"/>
+        <v>0.12248795302036633</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="17"/>
+        <v>0.99247000023420384</v>
+      </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:24">
       <c r="A98">
         <v>96</v>
       </c>
@@ -10969,27 +16929,35 @@
         <v>96</v>
       </c>
       <c r="O98">
-        <f>(K98-H98)/H98</f>
+        <f t="shared" si="14"/>
         <v>2.1863484403385147E-2</v>
       </c>
       <c r="P98">
-        <f>(L98-I98)/I98</f>
+        <f t="shared" si="11"/>
         <v>-7.8176103639176575E-4</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>-2.0336428144988365E-2</v>
       </c>
       <c r="S98">
-        <f>ABS(J98-PI())</f>
+        <f t="shared" si="12"/>
         <v>0.7375926535897932</v>
       </c>
       <c r="T98">
-        <f>ABS(M98-PI())</f>
+        <f t="shared" si="13"/>
         <v>0.72259265358979308</v>
       </c>
+      <c r="W98">
+        <f t="shared" si="16"/>
+        <v>2.8792347171058365E-2</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="17"/>
+        <v>0.99958541443159388</v>
+      </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:24">
       <c r="A99">
         <v>97</v>
       </c>
@@ -11033,27 +17001,35 @@
         <v>97</v>
       </c>
       <c r="O99">
-        <f>(K99-H99)/H99</f>
+        <f t="shared" si="14"/>
         <v>1.743959702215896E-2</v>
       </c>
       <c r="P99">
-        <f>(L99-I99)/I99</f>
+        <f t="shared" si="11"/>
         <v>-1.76999273644469E-2</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>2.3585359716266366E-2</v>
       </c>
       <c r="S99">
-        <f>ABS(J99-PI())</f>
+        <f t="shared" si="12"/>
         <v>0.38159265358979333</v>
       </c>
       <c r="T99">
-        <f>ABS(M99-PI())</f>
+        <f t="shared" si="13"/>
         <v>0.39059265358979323</v>
       </c>
+      <c r="W99">
+        <f t="shared" si="16"/>
+        <v>-0.19592797119300134</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="17"/>
+        <v>0.98061828970511988</v>
+      </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:24">
       <c r="A100">
         <v>98</v>
       </c>
@@ -11097,27 +17073,35 @@
         <v>98</v>
       </c>
       <c r="O100">
-        <f>(K100-H100)/H100</f>
+        <f t="shared" si="14"/>
         <v>-2.5426856124785183E-2</v>
       </c>
       <c r="P100">
-        <f>(L100-I100)/I100</f>
+        <f t="shared" si="11"/>
         <v>1.0828551920750289E-2</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>0.6251366818601275</v>
       </c>
       <c r="S100">
-        <f>ABS(J100-PI())</f>
+        <f t="shared" si="12"/>
         <v>3.359265358979302E-2</v>
       </c>
       <c r="T100">
-        <f>ABS(M100-PI())</f>
+        <f t="shared" si="13"/>
         <v>5.4592653589792928E-2</v>
       </c>
+      <c r="W100">
+        <f t="shared" si="16"/>
+        <v>-0.95004778898285813</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="17"/>
+        <v>-0.31210446752454951</v>
+      </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:24">
       <c r="A101">
         <v>99</v>
       </c>
@@ -11161,24 +17145,32 @@
         <v>99</v>
       </c>
       <c r="O101">
-        <f>(K101-H101)/H101</f>
+        <f t="shared" si="14"/>
         <v>9.5464920901626033E-3</v>
       </c>
       <c r="P101">
-        <f>(L101-I101)/I101</f>
+        <f t="shared" si="11"/>
         <v>8.3813159344828577E-3</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>6.2226331237843343E-3</v>
       </c>
       <c r="S101">
-        <f>ABS(J101-PI())</f>
+        <f t="shared" si="12"/>
         <v>0.32140734641020696</v>
       </c>
       <c r="T101">
-        <f>ABS(M101-PI())</f>
+        <f t="shared" si="13"/>
         <v>0.32340734641020674</v>
+      </c>
+      <c r="W101">
+        <f t="shared" si="16"/>
+        <v>-0.98337622501759603</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="17"/>
+        <v>0.18157973474521419</v>
       </c>
     </row>
   </sheetData>
